--- a/开发计划2016-01.xlsx
+++ b/开发计划2016-01.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="40">
   <si>
     <t>序号</t>
   </si>
@@ -156,6 +156,10 @@
   </si>
   <si>
     <t>帖子 - 首页H5改原生接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张士辉</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -288,79 +292,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="111">
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="102">
     <dxf>
       <fill>
         <patternFill>
@@ -1523,7 +1455,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1740,7 +1672,7 @@
         <v>5</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>36</v>
@@ -2413,376 +2345,376 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="I23:I36 J6:K22 A4:A46 H6 H3:I5 H9:I17 H36 H40:K46 H37:I39 H2:K2 A2:D2 B37:D46 D36 C3:D4 D5:D9 B10:D35 E2:G46">
-    <cfRule type="expression" dxfId="110" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="100" stopIfTrue="1">
       <formula>$I2="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="101" stopIfTrue="1">
       <formula>$I2="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="102" stopIfTrue="1">
       <formula>$I2="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:H35">
-    <cfRule type="expression" dxfId="107" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="97" stopIfTrue="1">
       <formula>$I23="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="98" stopIfTrue="1">
       <formula>$I23="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="99" stopIfTrue="1">
       <formula>$I23="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31:K31">
-    <cfRule type="expression" dxfId="104" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="43" stopIfTrue="1">
       <formula>$I31="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="44" stopIfTrue="1">
       <formula>$I31="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="45" stopIfTrue="1">
       <formula>$I31="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I7">
-    <cfRule type="expression" dxfId="101" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="94" stopIfTrue="1">
       <formula>$I6="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="95" stopIfTrue="1">
       <formula>$I6="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="96" stopIfTrue="1">
       <formula>$I6="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="98" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="91" stopIfTrue="1">
       <formula>$I7="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="92" stopIfTrue="1">
       <formula>$I7="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="93" stopIfTrue="1">
       <formula>$I7="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="95" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="88" stopIfTrue="1">
       <formula>$I8="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="89" stopIfTrue="1">
       <formula>$I8="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="90" stopIfTrue="1">
       <formula>$I8="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="92" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="85" stopIfTrue="1">
       <formula>$I8="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="86" stopIfTrue="1">
       <formula>$I8="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="87" stopIfTrue="1">
       <formula>$I8="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:C36">
-    <cfRule type="expression" dxfId="89" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="82" stopIfTrue="1">
       <formula>$I36="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="83" stopIfTrue="1">
       <formula>$I36="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="84" stopIfTrue="1">
       <formula>$I36="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:I22">
-    <cfRule type="expression" dxfId="86" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="79" stopIfTrue="1">
       <formula>$I18="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="80" stopIfTrue="1">
       <formula>$I18="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="81" stopIfTrue="1">
       <formula>$I18="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:H22">
-    <cfRule type="expression" dxfId="83" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="76" stopIfTrue="1">
       <formula>$I18="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="77" stopIfTrue="1">
       <formula>$I18="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="78" stopIfTrue="1">
       <formula>$I18="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="80" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="73" stopIfTrue="1">
       <formula>$I3="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="74" stopIfTrue="1">
       <formula>$I3="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="75" stopIfTrue="1">
       <formula>$I3="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:K5">
-    <cfRule type="expression" dxfId="77" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="70" stopIfTrue="1">
       <formula>$I3="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="71" stopIfTrue="1">
       <formula>$I3="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="72" stopIfTrue="1">
       <formula>$I3="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23:K23">
-    <cfRule type="expression" dxfId="74" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="67" stopIfTrue="1">
       <formula>$I23="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="68" stopIfTrue="1">
       <formula>$I23="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="69" stopIfTrue="1">
       <formula>$I23="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24:K24">
-    <cfRule type="expression" dxfId="71" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="64" stopIfTrue="1">
       <formula>$I24="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="65" stopIfTrue="1">
       <formula>$I24="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="66" stopIfTrue="1">
       <formula>$I24="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25:K25">
-    <cfRule type="expression" dxfId="68" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="61" stopIfTrue="1">
       <formula>$I25="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="62" stopIfTrue="1">
       <formula>$I25="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="63" stopIfTrue="1">
       <formula>$I25="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26:K26">
-    <cfRule type="expression" dxfId="65" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="58" stopIfTrue="1">
       <formula>$I26="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="59" stopIfTrue="1">
       <formula>$I26="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="60" stopIfTrue="1">
       <formula>$I26="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:K27">
-    <cfRule type="expression" dxfId="62" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="55" stopIfTrue="1">
       <formula>$I27="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="56" stopIfTrue="1">
       <formula>$I27="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="57" stopIfTrue="1">
       <formula>$I27="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:K28">
-    <cfRule type="expression" dxfId="59" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="52" stopIfTrue="1">
       <formula>$I28="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="53" stopIfTrue="1">
       <formula>$I28="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="54" stopIfTrue="1">
       <formula>$I28="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29:K29">
-    <cfRule type="expression" dxfId="56" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="49" stopIfTrue="1">
       <formula>$I29="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="50" stopIfTrue="1">
       <formula>$I29="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="51" stopIfTrue="1">
       <formula>$I29="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30:K30">
-    <cfRule type="expression" dxfId="53" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="46" stopIfTrue="1">
       <formula>$I30="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="47" stopIfTrue="1">
       <formula>$I30="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="48" stopIfTrue="1">
       <formula>$I30="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35:K35">
-    <cfRule type="expression" dxfId="50" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="31" stopIfTrue="1">
       <formula>$I35="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="32" stopIfTrue="1">
       <formula>$I35="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="33" stopIfTrue="1">
       <formula>$I35="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32:K32">
-    <cfRule type="expression" dxfId="47" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="40" stopIfTrue="1">
       <formula>$I32="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="41" stopIfTrue="1">
       <formula>$I32="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="42" stopIfTrue="1">
       <formula>$I32="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:K33">
-    <cfRule type="expression" dxfId="44" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="37" stopIfTrue="1">
       <formula>$I33="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="38" stopIfTrue="1">
       <formula>$I33="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="39" stopIfTrue="1">
       <formula>$I33="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34:K34">
-    <cfRule type="expression" dxfId="41" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="34" stopIfTrue="1">
       <formula>$I34="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="35" stopIfTrue="1">
       <formula>$I34="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="36" stopIfTrue="1">
       <formula>$I34="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39:K39">
-    <cfRule type="expression" dxfId="38" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="19" stopIfTrue="1">
       <formula>$I39="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="20" stopIfTrue="1">
       <formula>$I39="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="21" stopIfTrue="1">
       <formula>$I39="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36:K36">
-    <cfRule type="expression" dxfId="35" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="28" stopIfTrue="1">
       <formula>$I36="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="29" stopIfTrue="1">
       <formula>$I36="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="30" stopIfTrue="1">
       <formula>$I36="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37:K37">
-    <cfRule type="expression" dxfId="32" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="25" stopIfTrue="1">
       <formula>$I37="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="26" stopIfTrue="1">
       <formula>$I37="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="27" stopIfTrue="1">
       <formula>$I37="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38:K38">
-    <cfRule type="expression" dxfId="29" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="22" stopIfTrue="1">
       <formula>$I38="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="23" stopIfTrue="1">
       <formula>$I38="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="24" stopIfTrue="1">
       <formula>$I38="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B9">
-    <cfRule type="expression" dxfId="26" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="16" stopIfTrue="1">
       <formula>$I3="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
       <formula>$I3="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="18" stopIfTrue="1">
       <formula>$I3="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C7">
-    <cfRule type="expression" dxfId="23" priority="103" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="103" stopIfTrue="1">
       <formula>$I5="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="104" stopIfTrue="1">
       <formula>$I5="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="105" stopIfTrue="1">
       <formula>$I5="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="20" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
       <formula>$I7="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
       <formula>$I7="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
       <formula>$I7="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="17" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
       <formula>$I8="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
       <formula>$I8="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
       <formula>$I8="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
       <formula>$I4="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>$I4="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
       <formula>$I4="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
       <formula>$I8="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>$I8="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$I8="Done"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/开发计划2016-01.xlsx
+++ b/开发计划2016-01.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="3780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25960" windowHeight="14080"/>
   </bookViews>
   <sheets>
     <sheet name="第3周" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="40">
   <si>
     <t>序号</t>
   </si>
@@ -156,18 +161,22 @@
   </si>
   <si>
     <t>帖子 - 首页H5改原生接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>帖子 - 首页H5导航条改原生</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -223,6 +232,24 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -248,26 +275,56 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -284,11 +341,144 @@
     <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="11">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="111">
+  <dxfs count="126">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1518,29 +1708,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.375" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.75" style="5" customWidth="1"/>
+    <col min="6" max="6" width="4.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="5" customWidth="1"/>
     <col min="8" max="8" width="10.5" customWidth="1"/>
-    <col min="9" max="9" width="10.375" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
     <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="10" customFormat="1" ht="10.5">
+    <row r="1" spans="1:11" s="10" customFormat="1" ht="12">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1674,14 +1864,24 @@
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="C6" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="17">
+        <v>42389</v>
+      </c>
+      <c r="E6" s="17">
+        <v>42389</v>
+      </c>
+      <c r="F6" s="18">
+        <v>1</v>
+      </c>
+      <c r="G6" s="17">
+        <v>42389</v>
+      </c>
       <c r="H6" s="6"/>
       <c r="I6" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>14</v>
@@ -1695,9 +1895,7 @@
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="C7" s="11"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
@@ -1737,7 +1935,7 @@
         <v>42389</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J8" s="11" t="s">
         <v>12</v>
@@ -2412,381 +2610,393 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="I23:I36 J6:K22 A4:A46 H6 H3:I5 H9:I17 H36 H40:K46 H37:I39 H2:K2 A2:D2 B37:D46 D36 C3:D4 D5:D9 B10:D35 E2:G46">
-    <cfRule type="expression" dxfId="110" priority="100" stopIfTrue="1">
+  <conditionalFormatting sqref="I23:I36 J6:K22 A4:A46 H6 H3:I5 H9:I17 H36 H40:K46 H37:I39 H2:K2 A2:D2 B37:D46 D36 C3:D4 B10:D35 D5:D9 E2:G46">
+    <cfRule type="expression" dxfId="125" priority="106" stopIfTrue="1">
       <formula>$I2="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="107" stopIfTrue="1">
       <formula>$I2="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="108" stopIfTrue="1">
       <formula>$I2="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:H35">
-    <cfRule type="expression" dxfId="107" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="103" stopIfTrue="1">
       <formula>$I23="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="104" stopIfTrue="1">
       <formula>$I23="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="105" stopIfTrue="1">
       <formula>$I23="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31:K31">
-    <cfRule type="expression" dxfId="104" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="49" stopIfTrue="1">
       <formula>$I31="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="50" stopIfTrue="1">
       <formula>$I31="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="51" stopIfTrue="1">
       <formula>$I31="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I7">
-    <cfRule type="expression" dxfId="101" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="100" stopIfTrue="1">
       <formula>$I6="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="101" stopIfTrue="1">
       <formula>$I6="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="102" stopIfTrue="1">
       <formula>$I6="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="98" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="97" stopIfTrue="1">
       <formula>$I7="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="98" stopIfTrue="1">
       <formula>$I7="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="99" stopIfTrue="1">
       <formula>$I7="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="95" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="94" stopIfTrue="1">
       <formula>$I8="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="95" stopIfTrue="1">
       <formula>$I8="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="96" stopIfTrue="1">
       <formula>$I8="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="92" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="91" stopIfTrue="1">
       <formula>$I8="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="92" stopIfTrue="1">
       <formula>$I8="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="93" stopIfTrue="1">
       <formula>$I8="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:C36">
-    <cfRule type="expression" dxfId="89" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="88" stopIfTrue="1">
       <formula>$I36="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="89" stopIfTrue="1">
       <formula>$I36="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="90" stopIfTrue="1">
       <formula>$I36="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:I22">
-    <cfRule type="expression" dxfId="86" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="85" stopIfTrue="1">
       <formula>$I18="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="86" stopIfTrue="1">
       <formula>$I18="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="87" stopIfTrue="1">
       <formula>$I18="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:H22">
-    <cfRule type="expression" dxfId="83" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="82" stopIfTrue="1">
       <formula>$I18="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="83" stopIfTrue="1">
       <formula>$I18="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="84" stopIfTrue="1">
       <formula>$I18="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="80" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="79" stopIfTrue="1">
       <formula>$I3="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="80" stopIfTrue="1">
       <formula>$I3="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="81" stopIfTrue="1">
       <formula>$I3="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:K5">
-    <cfRule type="expression" dxfId="77" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="76" stopIfTrue="1">
       <formula>$I3="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="77" stopIfTrue="1">
       <formula>$I3="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="78" stopIfTrue="1">
       <formula>$I3="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23:K23">
-    <cfRule type="expression" dxfId="74" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="73" stopIfTrue="1">
       <formula>$I23="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="74" stopIfTrue="1">
       <formula>$I23="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="75" stopIfTrue="1">
       <formula>$I23="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24:K24">
-    <cfRule type="expression" dxfId="71" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="70" stopIfTrue="1">
       <formula>$I24="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="71" stopIfTrue="1">
       <formula>$I24="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="72" stopIfTrue="1">
       <formula>$I24="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25:K25">
-    <cfRule type="expression" dxfId="68" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="67" stopIfTrue="1">
       <formula>$I25="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="68" stopIfTrue="1">
       <formula>$I25="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="69" stopIfTrue="1">
       <formula>$I25="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26:K26">
-    <cfRule type="expression" dxfId="65" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="64" stopIfTrue="1">
       <formula>$I26="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="65" stopIfTrue="1">
       <formula>$I26="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="66" stopIfTrue="1">
       <formula>$I26="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:K27">
-    <cfRule type="expression" dxfId="62" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="61" stopIfTrue="1">
       <formula>$I27="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="62" stopIfTrue="1">
       <formula>$I27="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="63" stopIfTrue="1">
       <formula>$I27="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:K28">
-    <cfRule type="expression" dxfId="59" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="58" stopIfTrue="1">
       <formula>$I28="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="59" stopIfTrue="1">
       <formula>$I28="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="60" stopIfTrue="1">
       <formula>$I28="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29:K29">
-    <cfRule type="expression" dxfId="56" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="55" stopIfTrue="1">
       <formula>$I29="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="56" stopIfTrue="1">
       <formula>$I29="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="57" stopIfTrue="1">
       <formula>$I29="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30:K30">
-    <cfRule type="expression" dxfId="53" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="52" stopIfTrue="1">
       <formula>$I30="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="53" stopIfTrue="1">
       <formula>$I30="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="54" stopIfTrue="1">
       <formula>$I30="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35:K35">
-    <cfRule type="expression" dxfId="50" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="37" stopIfTrue="1">
       <formula>$I35="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="38" stopIfTrue="1">
       <formula>$I35="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="39" stopIfTrue="1">
       <formula>$I35="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32:K32">
-    <cfRule type="expression" dxfId="47" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="46" stopIfTrue="1">
       <formula>$I32="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="47" stopIfTrue="1">
       <formula>$I32="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="48" stopIfTrue="1">
       <formula>$I32="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:K33">
-    <cfRule type="expression" dxfId="44" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="43" stopIfTrue="1">
       <formula>$I33="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="44" stopIfTrue="1">
       <formula>$I33="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="45" stopIfTrue="1">
       <formula>$I33="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34:K34">
-    <cfRule type="expression" dxfId="41" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="40" stopIfTrue="1">
       <formula>$I34="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="41" stopIfTrue="1">
       <formula>$I34="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="42" stopIfTrue="1">
       <formula>$I34="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39:K39">
-    <cfRule type="expression" dxfId="38" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="25" stopIfTrue="1">
       <formula>$I39="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="26" stopIfTrue="1">
       <formula>$I39="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="27" stopIfTrue="1">
       <formula>$I39="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36:K36">
-    <cfRule type="expression" dxfId="35" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="34" stopIfTrue="1">
       <formula>$I36="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="35" stopIfTrue="1">
       <formula>$I36="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="36" stopIfTrue="1">
       <formula>$I36="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37:K37">
-    <cfRule type="expression" dxfId="32" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="31" stopIfTrue="1">
       <formula>$I37="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="32" stopIfTrue="1">
       <formula>$I37="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="33" stopIfTrue="1">
       <formula>$I37="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38:K38">
-    <cfRule type="expression" dxfId="29" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="28" stopIfTrue="1">
       <formula>$I38="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="29" stopIfTrue="1">
       <formula>$I38="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="30" stopIfTrue="1">
       <formula>$I38="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B9">
-    <cfRule type="expression" dxfId="26" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="22" stopIfTrue="1">
       <formula>$I3="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="23" stopIfTrue="1">
       <formula>$I3="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="24" stopIfTrue="1">
       <formula>$I3="Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C7">
-    <cfRule type="expression" dxfId="23" priority="103" stopIfTrue="1">
+  <conditionalFormatting sqref="C8">
+    <cfRule type="expression" dxfId="35" priority="16" stopIfTrue="1">
+      <formula>$I7="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="17" stopIfTrue="1">
+      <formula>$I7="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="18" stopIfTrue="1">
+      <formula>$I7="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="expression" dxfId="32" priority="13" stopIfTrue="1">
+      <formula>$I8="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="14" stopIfTrue="1">
+      <formula>$I8="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="15" stopIfTrue="1">
+      <formula>$I8="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="expression" dxfId="29" priority="10" stopIfTrue="1">
+      <formula>$I4="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="11" stopIfTrue="1">
+      <formula>$I4="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="12" stopIfTrue="1">
+      <formula>$I4="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="expression" dxfId="26" priority="7" stopIfTrue="1">
+      <formula>$I8="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="8" stopIfTrue="1">
+      <formula>$I8="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="9" stopIfTrue="1">
+      <formula>$I8="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="expression" dxfId="23" priority="4" stopIfTrue="1">
       <formula>$I5="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="5" stopIfTrue="1">
       <formula>$I5="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="6" stopIfTrue="1">
       <formula>$I5="Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="20" priority="10" stopIfTrue="1">
-      <formula>$I7="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="11" stopIfTrue="1">
-      <formula>$I7="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="12" stopIfTrue="1">
-      <formula>$I7="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="17" priority="7" stopIfTrue="1">
-      <formula>$I8="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="8" stopIfTrue="1">
-      <formula>$I8="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="9" stopIfTrue="1">
-      <formula>$I8="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
-      <formula>$I4="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="5" stopIfTrue="1">
-      <formula>$I4="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="6" stopIfTrue="1">
-      <formula>$I4="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
-      <formula>$I8="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
-      <formula>$I8="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
-      <formula>$I8="Done"</formula>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="expression" dxfId="17" priority="1" stopIfTrue="1">
+      <formula>$I6="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
+      <formula>$I6="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
+      <formula>$I6="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -2804,21 +3014,24 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
   </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.375" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2874,6 +3087,11 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/开发计划2016-01.xlsx
+++ b/开发计划2016-01.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="3780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24420" windowHeight="14660"/>
   </bookViews>
   <sheets>
     <sheet name="第3周" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="43">
   <si>
     <t>序号</t>
   </si>
@@ -160,18 +165,30 @@
   </si>
   <si>
     <t>张士辉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>帖子 - 首页导航条改原生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>帖子 - 首页列表改原生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小姚</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -227,8 +244,27 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,6 +275,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="11"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor rgb="FFDD0806"/>
       </patternFill>
     </fill>
   </fills>
@@ -252,26 +294,50 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -288,11 +354,92 @@
     <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="9">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="102">
+  <dxfs count="111">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1450,29 +1597,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.375" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.75" style="5" customWidth="1"/>
+    <col min="6" max="6" width="4.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="5" customWidth="1"/>
     <col min="8" max="8" width="10.5" customWidth="1"/>
-    <col min="9" max="9" width="10.375" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
     <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="10" customFormat="1" ht="10.5">
+    <row r="1" spans="1:11" s="10" customFormat="1" ht="12">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1606,77 +1753,97 @@
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="6"/>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="2">
+        <v>42389</v>
+      </c>
+      <c r="E6" s="2">
+        <v>42389</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="16">
+        <v>42389</v>
+      </c>
+      <c r="H6" s="16">
+        <v>42389</v>
+      </c>
       <c r="I6" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" s="15" customFormat="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="12">
+        <v>42389</v>
+      </c>
+      <c r="E7" s="12">
+        <v>42389</v>
+      </c>
+      <c r="F7" s="13">
+        <v>1</v>
+      </c>
+      <c r="G7" s="12">
+        <v>42389</v>
+      </c>
+      <c r="H7" s="12">
+        <v>42389</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" s="15" customFormat="1">
-      <c r="A8" s="11">
-        <v>7</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="12">
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="2">
         <v>42389</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="2">
+        <v>42390</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="16">
         <v>42389</v>
       </c>
-      <c r="F8" s="13">
-        <v>1</v>
-      </c>
-      <c r="G8" s="12">
-        <v>42389</v>
-      </c>
-      <c r="H8" s="12">
-        <v>42389</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>36</v>
-      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
@@ -2344,7 +2511,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="I23:I36 J6:K22 A4:A46 H6 H3:I5 H9:I17 H36 H40:K46 H37:I39 H2:K2 A2:D2 B37:D46 D36 C3:D4 D5:D9 B10:D35 E2:G46">
+  <conditionalFormatting sqref="I23:I36 H3:I5 H9:I17 H36 H40:K46 H37:I39 H2:K2 A2:D2 B37:D46 D36 C3:D4 B10:D35 E2:G5 E9:G46 D9 A9:A46 J9:K22 J7:K7 A4:A6 D5:D6 D7:G7 E6:F6 D8:F8 I6:K6 H8:K8 B3:B6 A7:B8">
     <cfRule type="expression" dxfId="101" priority="100" stopIfTrue="1">
       <formula>$I2="Not start"</formula>
     </cfRule>
@@ -2377,348 +2544,338 @@
       <formula>$I31="Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6:I7">
-    <cfRule type="expression" dxfId="92" priority="94" stopIfTrue="1">
+  <conditionalFormatting sqref="I7">
+    <cfRule type="expression" dxfId="92" priority="88" stopIfTrue="1">
+      <formula>$I7="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="89" stopIfTrue="1">
+      <formula>$I7="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="90" stopIfTrue="1">
+      <formula>$I7="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="expression" dxfId="89" priority="85" stopIfTrue="1">
+      <formula>$I7="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="86" stopIfTrue="1">
+      <formula>$I7="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="87" priority="87" stopIfTrue="1">
+      <formula>$I7="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36:C36">
+    <cfRule type="expression" dxfId="86" priority="82" stopIfTrue="1">
+      <formula>$I36="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="83" stopIfTrue="1">
+      <formula>$I36="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="84" stopIfTrue="1">
+      <formula>$I36="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18:I22">
+    <cfRule type="expression" dxfId="83" priority="79" stopIfTrue="1">
+      <formula>$I18="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="80" stopIfTrue="1">
+      <formula>$I18="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="81" stopIfTrue="1">
+      <formula>$I18="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18:H22">
+    <cfRule type="expression" dxfId="80" priority="76" stopIfTrue="1">
+      <formula>$I18="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="79" priority="77" stopIfTrue="1">
+      <formula>$I18="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="78" stopIfTrue="1">
+      <formula>$I18="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="expression" dxfId="77" priority="73" stopIfTrue="1">
+      <formula>$I3="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="74" stopIfTrue="1">
+      <formula>$I3="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="75" stopIfTrue="1">
+      <formula>$I3="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:K5">
+    <cfRule type="expression" dxfId="74" priority="70" stopIfTrue="1">
+      <formula>$I3="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="71" stopIfTrue="1">
+      <formula>$I3="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="72" stopIfTrue="1">
+      <formula>$I3="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23:K23">
+    <cfRule type="expression" dxfId="71" priority="67" stopIfTrue="1">
+      <formula>$I23="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="68" stopIfTrue="1">
+      <formula>$I23="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="69" stopIfTrue="1">
+      <formula>$I23="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24:K24">
+    <cfRule type="expression" dxfId="68" priority="64" stopIfTrue="1">
+      <formula>$I24="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="65" stopIfTrue="1">
+      <formula>$I24="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="66" stopIfTrue="1">
+      <formula>$I24="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25:K25">
+    <cfRule type="expression" dxfId="65" priority="61" stopIfTrue="1">
+      <formula>$I25="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="62" stopIfTrue="1">
+      <formula>$I25="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="63" stopIfTrue="1">
+      <formula>$I25="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26:K26">
+    <cfRule type="expression" dxfId="62" priority="58" stopIfTrue="1">
+      <formula>$I26="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="59" stopIfTrue="1">
+      <formula>$I26="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="60" stopIfTrue="1">
+      <formula>$I26="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27:K27">
+    <cfRule type="expression" dxfId="59" priority="55" stopIfTrue="1">
+      <formula>$I27="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="56" stopIfTrue="1">
+      <formula>$I27="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="57" stopIfTrue="1">
+      <formula>$I27="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28:K28">
+    <cfRule type="expression" dxfId="56" priority="52" stopIfTrue="1">
+      <formula>$I28="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="53" stopIfTrue="1">
+      <formula>$I28="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="54" stopIfTrue="1">
+      <formula>$I28="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29:K29">
+    <cfRule type="expression" dxfId="53" priority="49" stopIfTrue="1">
+      <formula>$I29="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="50" stopIfTrue="1">
+      <formula>$I29="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="51" stopIfTrue="1">
+      <formula>$I29="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:K30">
+    <cfRule type="expression" dxfId="50" priority="46" stopIfTrue="1">
+      <formula>$I30="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="47" stopIfTrue="1">
+      <formula>$I30="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="48" stopIfTrue="1">
+      <formula>$I30="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J35:K35">
+    <cfRule type="expression" dxfId="47" priority="31" stopIfTrue="1">
+      <formula>$I35="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="32" stopIfTrue="1">
+      <formula>$I35="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="33" stopIfTrue="1">
+      <formula>$I35="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32:K32">
+    <cfRule type="expression" dxfId="44" priority="40" stopIfTrue="1">
+      <formula>$I32="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="41" stopIfTrue="1">
+      <formula>$I32="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="42" stopIfTrue="1">
+      <formula>$I32="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33:K33">
+    <cfRule type="expression" dxfId="41" priority="37" stopIfTrue="1">
+      <formula>$I33="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="38" stopIfTrue="1">
+      <formula>$I33="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="39" stopIfTrue="1">
+      <formula>$I33="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J34:K34">
+    <cfRule type="expression" dxfId="38" priority="34" stopIfTrue="1">
+      <formula>$I34="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="35" stopIfTrue="1">
+      <formula>$I34="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="36" stopIfTrue="1">
+      <formula>$I34="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J39:K39">
+    <cfRule type="expression" dxfId="35" priority="19" stopIfTrue="1">
+      <formula>$I39="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="20" stopIfTrue="1">
+      <formula>$I39="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="21" stopIfTrue="1">
+      <formula>$I39="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J36:K36">
+    <cfRule type="expression" dxfId="32" priority="28" stopIfTrue="1">
+      <formula>$I36="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="29" stopIfTrue="1">
+      <formula>$I36="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="30" stopIfTrue="1">
+      <formula>$I36="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J37:K37">
+    <cfRule type="expression" dxfId="29" priority="25" stopIfTrue="1">
+      <formula>$I37="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="26" stopIfTrue="1">
+      <formula>$I37="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="27" stopIfTrue="1">
+      <formula>$I37="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J38:K38">
+    <cfRule type="expression" dxfId="26" priority="22" stopIfTrue="1">
+      <formula>$I38="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="23" stopIfTrue="1">
+      <formula>$I38="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="24" stopIfTrue="1">
+      <formula>$I38="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="expression" dxfId="23" priority="16" stopIfTrue="1">
+      <formula>$I9="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="17" stopIfTrue="1">
+      <formula>$I9="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="18" stopIfTrue="1">
+      <formula>$I9="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="expression" dxfId="20" priority="103" stopIfTrue="1">
+      <formula>$I5="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="104" stopIfTrue="1">
+      <formula>$I5="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="105" stopIfTrue="1">
+      <formula>$I5="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="expression" dxfId="17" priority="7" stopIfTrue="1">
+      <formula>$I7="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="8" stopIfTrue="1">
+      <formula>$I7="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="9" stopIfTrue="1">
+      <formula>$I7="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
+      <formula>$I4="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="5" stopIfTrue="1">
+      <formula>$I4="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="6" stopIfTrue="1">
+      <formula>$I4="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="expression" dxfId="11" priority="1" stopIfTrue="1">
+      <formula>$I7="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
+      <formula>$I7="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
+      <formula>$I7="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="expression" dxfId="8" priority="148" stopIfTrue="1">
       <formula>$I6="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="149" stopIfTrue="1">
       <formula>$I6="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="150" stopIfTrue="1">
       <formula>$I6="Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="89" priority="91" stopIfTrue="1">
-      <formula>$I7="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="88" priority="92" stopIfTrue="1">
-      <formula>$I7="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="87" priority="93" stopIfTrue="1">
-      <formula>$I7="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="86" priority="88" stopIfTrue="1">
+  <conditionalFormatting sqref="C7">
+    <cfRule type="expression" dxfId="5" priority="151" stopIfTrue="1">
       <formula>$I8="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="152" stopIfTrue="1">
       <formula>$I8="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="153" stopIfTrue="1">
       <formula>$I8="Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="83" priority="85" stopIfTrue="1">
-      <formula>$I8="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="82" priority="86" stopIfTrue="1">
-      <formula>$I8="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="81" priority="87" stopIfTrue="1">
-      <formula>$I8="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36:C36">
-    <cfRule type="expression" dxfId="80" priority="82" stopIfTrue="1">
-      <formula>$I36="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="79" priority="83" stopIfTrue="1">
-      <formula>$I36="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="78" priority="84" stopIfTrue="1">
-      <formula>$I36="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18:I22">
-    <cfRule type="expression" dxfId="77" priority="79" stopIfTrue="1">
-      <formula>$I18="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="76" priority="80" stopIfTrue="1">
-      <formula>$I18="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="75" priority="81" stopIfTrue="1">
-      <formula>$I18="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18:H22">
-    <cfRule type="expression" dxfId="74" priority="76" stopIfTrue="1">
-      <formula>$I18="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="73" priority="77" stopIfTrue="1">
-      <formula>$I18="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="78" stopIfTrue="1">
-      <formula>$I18="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="71" priority="73" stopIfTrue="1">
-      <formula>$I3="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="74" stopIfTrue="1">
-      <formula>$I3="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="69" priority="75" stopIfTrue="1">
-      <formula>$I3="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:K5">
-    <cfRule type="expression" dxfId="68" priority="70" stopIfTrue="1">
-      <formula>$I3="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="67" priority="71" stopIfTrue="1">
-      <formula>$I3="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="72" stopIfTrue="1">
-      <formula>$I3="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23:K23">
-    <cfRule type="expression" dxfId="65" priority="67" stopIfTrue="1">
-      <formula>$I23="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="68" stopIfTrue="1">
-      <formula>$I23="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="63" priority="69" stopIfTrue="1">
-      <formula>$I23="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J24:K24">
-    <cfRule type="expression" dxfId="62" priority="64" stopIfTrue="1">
-      <formula>$I24="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="61" priority="65" stopIfTrue="1">
-      <formula>$I24="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="66" stopIfTrue="1">
-      <formula>$I24="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25:K25">
-    <cfRule type="expression" dxfId="59" priority="61" stopIfTrue="1">
-      <formula>$I25="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="62" stopIfTrue="1">
-      <formula>$I25="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="63" stopIfTrue="1">
-      <formula>$I25="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J26:K26">
-    <cfRule type="expression" dxfId="56" priority="58" stopIfTrue="1">
-      <formula>$I26="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="55" priority="59" stopIfTrue="1">
-      <formula>$I26="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="60" stopIfTrue="1">
-      <formula>$I26="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J27:K27">
-    <cfRule type="expression" dxfId="53" priority="55" stopIfTrue="1">
-      <formula>$I27="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="56" stopIfTrue="1">
-      <formula>$I27="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="57" stopIfTrue="1">
-      <formula>$I27="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28:K28">
-    <cfRule type="expression" dxfId="50" priority="52" stopIfTrue="1">
-      <formula>$I28="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="53" stopIfTrue="1">
-      <formula>$I28="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="54" stopIfTrue="1">
-      <formula>$I28="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J29:K29">
-    <cfRule type="expression" dxfId="47" priority="49" stopIfTrue="1">
-      <formula>$I29="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="50" stopIfTrue="1">
-      <formula>$I29="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="51" stopIfTrue="1">
-      <formula>$I29="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30:K30">
-    <cfRule type="expression" dxfId="44" priority="46" stopIfTrue="1">
-      <formula>$I30="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="47" stopIfTrue="1">
-      <formula>$I30="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="48" stopIfTrue="1">
-      <formula>$I30="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J35:K35">
-    <cfRule type="expression" dxfId="41" priority="31" stopIfTrue="1">
-      <formula>$I35="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="32" stopIfTrue="1">
-      <formula>$I35="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="33" stopIfTrue="1">
-      <formula>$I35="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J32:K32">
-    <cfRule type="expression" dxfId="38" priority="40" stopIfTrue="1">
-      <formula>$I32="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="41" stopIfTrue="1">
-      <formula>$I32="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="42" stopIfTrue="1">
-      <formula>$I32="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J33:K33">
-    <cfRule type="expression" dxfId="35" priority="37" stopIfTrue="1">
-      <formula>$I33="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="38" stopIfTrue="1">
-      <formula>$I33="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="39" stopIfTrue="1">
-      <formula>$I33="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J34:K34">
-    <cfRule type="expression" dxfId="32" priority="34" stopIfTrue="1">
-      <formula>$I34="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="35" stopIfTrue="1">
-      <formula>$I34="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="36" stopIfTrue="1">
-      <formula>$I34="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J39:K39">
-    <cfRule type="expression" dxfId="29" priority="19" stopIfTrue="1">
-      <formula>$I39="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="20" stopIfTrue="1">
-      <formula>$I39="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="21" stopIfTrue="1">
-      <formula>$I39="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J36:K36">
-    <cfRule type="expression" dxfId="26" priority="28" stopIfTrue="1">
-      <formula>$I36="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="29" stopIfTrue="1">
-      <formula>$I36="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="30" stopIfTrue="1">
-      <formula>$I36="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J37:K37">
-    <cfRule type="expression" dxfId="23" priority="25" stopIfTrue="1">
-      <formula>$I37="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="26" stopIfTrue="1">
-      <formula>$I37="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="27" stopIfTrue="1">
-      <formula>$I37="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J38:K38">
-    <cfRule type="expression" dxfId="20" priority="22" stopIfTrue="1">
-      <formula>$I38="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="23" stopIfTrue="1">
-      <formula>$I38="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="24" stopIfTrue="1">
-      <formula>$I38="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B9">
-    <cfRule type="expression" dxfId="17" priority="16" stopIfTrue="1">
-      <formula>$I3="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
-      <formula>$I3="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="18" stopIfTrue="1">
-      <formula>$I3="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C7">
-    <cfRule type="expression" dxfId="14" priority="103" stopIfTrue="1">
-      <formula>$I5="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="104" stopIfTrue="1">
-      <formula>$I5="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="105" stopIfTrue="1">
-      <formula>$I5="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
-      <formula>$I7="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
-      <formula>$I7="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
-      <formula>$I7="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
-      <formula>$I8="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
-      <formula>$I8="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
-      <formula>$I8="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
-      <formula>$I4="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
-      <formula>$I4="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
-      <formula>$I4="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
-      <formula>$I8="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>$I8="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$I8="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -2736,21 +2893,24 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
   </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.375" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2806,6 +2966,11 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/开发计划2016-01.xlsx
+++ b/开发计划2016-01.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24420" windowHeight="14660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24420" windowHeight="14655"/>
   </bookViews>
   <sheets>
     <sheet name="第3周" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="44">
   <si>
     <t>序号</t>
   </si>
@@ -177,18 +177,22 @@
   </si>
   <si>
     <t>小姚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iOS 用户版 1.3推送信息更新</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -249,6 +253,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -256,12 +261,14 @@
       <sz val="11"/>
       <color theme="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -337,7 +344,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -352,22 +359,93 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="177" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="177" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="111">
+  <dxfs count="120">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1597,29 +1675,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.375" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="4.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.625" style="5" customWidth="1"/>
     <col min="8" max="8" width="10.5" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.375" customWidth="1"/>
     <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="10" customFormat="1" ht="12">
+    <row r="1" spans="1:11" s="10" customFormat="1" ht="10.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1765,10 +1843,10 @@
       <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="15">
         <v>42389</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="15">
         <v>42389</v>
       </c>
       <c r="I6" s="4" t="s">
@@ -1779,7 +1857,7 @@
       </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" s="15" customFormat="1">
+    <row r="7" spans="1:11" s="14" customFormat="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1804,8 +1882,8 @@
       <c r="H7" s="12">
         <v>42389</v>
       </c>
-      <c r="I7" s="14" t="s">
-        <v>5</v>
+      <c r="I7" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>39</v>
@@ -1833,7 +1911,7 @@
       <c r="F8" s="3">
         <v>1</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="15">
         <v>42389</v>
       </c>
       <c r="H8" s="6"/>
@@ -1935,15 +2013,25 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="3"/>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="2">
+        <v>42390</v>
+      </c>
+      <c r="E13" s="2">
+        <v>42390</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="6"/>
       <c r="I13" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -2511,367 +2599,378 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="I23:I36 H3:I5 H9:I17 H36 H40:K46 H37:I39 H2:K2 A2:D2 B37:D46 D36 C3:D4 B10:D35 E2:G5 E9:G46 D9 A9:A46 J9:K22 J7:K7 A4:A6 D5:D6 D7:G7 E6:F6 D8:F8 I6:K6 H8:K8 B3:B6 A7:B8">
-    <cfRule type="expression" dxfId="101" priority="100" stopIfTrue="1">
+  <conditionalFormatting sqref="I23:I36 H3:I5 H36 H40:K46 H37:I39 H2:K2 A2:D2 B37:D46 D36 C3:D4 E2:G5 D9 A9:A46 J9:K22 J7:K7 A4:A6 D5:D6 D7:G7 E6:F6 D8:F8 I6:K6 H8:K8 B3:B6 A7:B8 B10:D35 E9:G46 H9:I17">
+    <cfRule type="expression" dxfId="119" priority="103" stopIfTrue="1">
       <formula>$I2="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="104" stopIfTrue="1">
       <formula>$I2="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="105" stopIfTrue="1">
       <formula>$I2="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:H35">
-    <cfRule type="expression" dxfId="98" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="100" stopIfTrue="1">
       <formula>$I23="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="101" stopIfTrue="1">
       <formula>$I23="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="102" stopIfTrue="1">
       <formula>$I23="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31:K31">
-    <cfRule type="expression" dxfId="95" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="46" stopIfTrue="1">
       <formula>$I31="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="47" stopIfTrue="1">
       <formula>$I31="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="48" stopIfTrue="1">
       <formula>$I31="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="92" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="91" stopIfTrue="1">
       <formula>$I7="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="92" stopIfTrue="1">
       <formula>$I7="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="93" stopIfTrue="1">
       <formula>$I7="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="89" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="88" stopIfTrue="1">
       <formula>$I7="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="89" stopIfTrue="1">
       <formula>$I7="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="90" stopIfTrue="1">
       <formula>$I7="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:C36">
-    <cfRule type="expression" dxfId="86" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="85" stopIfTrue="1">
       <formula>$I36="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="86" stopIfTrue="1">
       <formula>$I36="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="87" stopIfTrue="1">
       <formula>$I36="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:I22">
-    <cfRule type="expression" dxfId="83" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="82" stopIfTrue="1">
       <formula>$I18="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="83" stopIfTrue="1">
       <formula>$I18="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="84" stopIfTrue="1">
       <formula>$I18="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:H22">
-    <cfRule type="expression" dxfId="80" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="79" stopIfTrue="1">
       <formula>$I18="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="80" stopIfTrue="1">
       <formula>$I18="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="81" stopIfTrue="1">
       <formula>$I18="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="77" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="76" stopIfTrue="1">
       <formula>$I3="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="77" stopIfTrue="1">
       <formula>$I3="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="78" stopIfTrue="1">
       <formula>$I3="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:K5">
-    <cfRule type="expression" dxfId="74" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="73" stopIfTrue="1">
       <formula>$I3="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="74" stopIfTrue="1">
       <formula>$I3="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="75" stopIfTrue="1">
       <formula>$I3="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23:K23">
-    <cfRule type="expression" dxfId="71" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="70" stopIfTrue="1">
       <formula>$I23="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="71" stopIfTrue="1">
       <formula>$I23="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="72" stopIfTrue="1">
       <formula>$I23="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24:K24">
-    <cfRule type="expression" dxfId="68" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="67" stopIfTrue="1">
       <formula>$I24="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="68" stopIfTrue="1">
       <formula>$I24="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="69" stopIfTrue="1">
       <formula>$I24="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25:K25">
-    <cfRule type="expression" dxfId="65" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="64" stopIfTrue="1">
       <formula>$I25="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="65" stopIfTrue="1">
       <formula>$I25="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="66" stopIfTrue="1">
       <formula>$I25="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26:K26">
-    <cfRule type="expression" dxfId="62" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="61" stopIfTrue="1">
       <formula>$I26="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="62" stopIfTrue="1">
       <formula>$I26="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="63" stopIfTrue="1">
       <formula>$I26="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:K27">
-    <cfRule type="expression" dxfId="59" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="58" stopIfTrue="1">
       <formula>$I27="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="59" stopIfTrue="1">
       <formula>$I27="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="60" stopIfTrue="1">
       <formula>$I27="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:K28">
-    <cfRule type="expression" dxfId="56" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="55" stopIfTrue="1">
       <formula>$I28="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="56" stopIfTrue="1">
       <formula>$I28="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="57" stopIfTrue="1">
       <formula>$I28="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29:K29">
-    <cfRule type="expression" dxfId="53" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="52" stopIfTrue="1">
       <formula>$I29="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="53" stopIfTrue="1">
       <formula>$I29="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="54" stopIfTrue="1">
       <formula>$I29="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30:K30">
-    <cfRule type="expression" dxfId="50" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="49" stopIfTrue="1">
       <formula>$I30="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="50" stopIfTrue="1">
       <formula>$I30="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="51" stopIfTrue="1">
       <formula>$I30="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35:K35">
-    <cfRule type="expression" dxfId="47" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="34" stopIfTrue="1">
       <formula>$I35="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="35" stopIfTrue="1">
       <formula>$I35="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="36" stopIfTrue="1">
       <formula>$I35="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32:K32">
-    <cfRule type="expression" dxfId="44" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="43" stopIfTrue="1">
       <formula>$I32="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="44" stopIfTrue="1">
       <formula>$I32="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="45" stopIfTrue="1">
       <formula>$I32="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:K33">
-    <cfRule type="expression" dxfId="41" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="40" stopIfTrue="1">
       <formula>$I33="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="41" stopIfTrue="1">
       <formula>$I33="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="42" stopIfTrue="1">
       <formula>$I33="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34:K34">
-    <cfRule type="expression" dxfId="38" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="37" stopIfTrue="1">
       <formula>$I34="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="38" stopIfTrue="1">
       <formula>$I34="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="39" stopIfTrue="1">
       <formula>$I34="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39:K39">
-    <cfRule type="expression" dxfId="35" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="22" stopIfTrue="1">
       <formula>$I39="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="23" stopIfTrue="1">
       <formula>$I39="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="24" stopIfTrue="1">
       <formula>$I39="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36:K36">
-    <cfRule type="expression" dxfId="32" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="31" stopIfTrue="1">
       <formula>$I36="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="32" stopIfTrue="1">
       <formula>$I36="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="33" stopIfTrue="1">
       <formula>$I36="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37:K37">
-    <cfRule type="expression" dxfId="29" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="28" stopIfTrue="1">
       <formula>$I37="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="29" stopIfTrue="1">
       <formula>$I37="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="30" stopIfTrue="1">
       <formula>$I37="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38:K38">
-    <cfRule type="expression" dxfId="26" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="25" stopIfTrue="1">
       <formula>$I38="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="26" stopIfTrue="1">
       <formula>$I38="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="27" stopIfTrue="1">
       <formula>$I38="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="23" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="19" stopIfTrue="1">
       <formula>$I9="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="20" stopIfTrue="1">
       <formula>$I9="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="21" stopIfTrue="1">
       <formula>$I9="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="20" priority="103" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="106" stopIfTrue="1">
       <formula>$I5="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="107" stopIfTrue="1">
       <formula>$I5="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="108" stopIfTrue="1">
       <formula>$I5="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="17" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="10" stopIfTrue="1">
       <formula>$I7="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="11" stopIfTrue="1">
       <formula>$I7="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="12" stopIfTrue="1">
       <formula>$I7="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="7" stopIfTrue="1">
       <formula>$I4="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="8" stopIfTrue="1">
       <formula>$I4="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="9" stopIfTrue="1">
       <formula>$I4="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="11" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="4" stopIfTrue="1">
       <formula>$I7="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="5" stopIfTrue="1">
       <formula>$I7="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="6" stopIfTrue="1">
       <formula>$I7="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="8" priority="148" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="151" stopIfTrue="1">
       <formula>$I6="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="149" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="152" stopIfTrue="1">
       <formula>$I6="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="153" stopIfTrue="1">
       <formula>$I6="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="5" priority="151" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="154" stopIfTrue="1">
       <formula>$I8="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="155" stopIfTrue="1">
       <formula>$I8="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="153" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="156" stopIfTrue="1">
       <formula>$I8="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
+      <formula>$I7="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
+      <formula>$I7="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="3" stopIfTrue="1">
+      <formula>$I7="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2901,16 +3000,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2966,7 +3065,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/开发计划2016-01.xlsx
+++ b/开发计划2016-01.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24420" windowHeight="14655"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="第3周" sheetId="4" r:id="rId1"/>
@@ -187,12 +187,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -268,6 +268,7 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -373,151 +374,7 @@
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="120">
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="102">
     <dxf>
       <fill>
         <patternFill>
@@ -1675,29 +1532,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.375" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="10.5" customWidth="1"/>
-    <col min="9" max="9" width="10.375" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="10" customFormat="1" ht="10.5">
+    <row r="1" spans="1:11" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1732,7 +1589,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1755,7 +1612,7 @@
       </c>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1778,7 +1635,7 @@
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1801,7 +1658,7 @@
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1824,7 +1681,7 @@
       </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1857,7 +1714,7 @@
       </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" s="14" customFormat="1">
+    <row r="7" spans="1:11" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1892,7 +1749,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1923,7 +1780,7 @@
       </c>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1946,7 +1803,7 @@
       </c>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1967,7 +1824,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1988,7 +1845,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2009,7 +1866,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2036,12 +1893,14 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1">
+        <v>22</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="3"/>
@@ -2053,7 +1912,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2070,7 +1929,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2087,7 +1946,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2104,7 +1963,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2121,7 +1980,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2138,7 +1997,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2155,7 +2014,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2172,7 +2031,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2189,7 +2048,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2206,7 +2065,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2223,7 +2082,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2240,7 +2099,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2257,7 +2116,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2274,7 +2133,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2291,7 +2150,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2308,7 +2167,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2325,7 +2184,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2342,7 +2201,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2359,7 +2218,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2376,7 +2235,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2393,7 +2252,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2410,7 +2269,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2427,7 +2286,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2444,7 +2303,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2461,7 +2320,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2478,7 +2337,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2495,7 +2354,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2512,7 +2371,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2529,7 +2388,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2546,7 +2405,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2563,7 +2422,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2580,7 +2439,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2600,376 +2459,376 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="I23:I36 H3:I5 H36 H40:K46 H37:I39 H2:K2 A2:D2 B37:D46 D36 C3:D4 E2:G5 D9 A9:A46 J9:K22 J7:K7 A4:A6 D5:D6 D7:G7 E6:F6 D8:F8 I6:K6 H8:K8 B3:B6 A7:B8 B10:D35 E9:G46 H9:I17">
-    <cfRule type="expression" dxfId="119" priority="103" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="103" stopIfTrue="1">
       <formula>$I2="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="104" stopIfTrue="1">
       <formula>$I2="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="105" stopIfTrue="1">
       <formula>$I2="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:H35">
-    <cfRule type="expression" dxfId="116" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="100" stopIfTrue="1">
       <formula>$I23="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="101" stopIfTrue="1">
       <formula>$I23="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="102" stopIfTrue="1">
       <formula>$I23="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31:K31">
-    <cfRule type="expression" dxfId="113" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="46" stopIfTrue="1">
       <formula>$I31="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="47" stopIfTrue="1">
       <formula>$I31="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="48" stopIfTrue="1">
       <formula>$I31="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="110" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="91" stopIfTrue="1">
       <formula>$I7="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="92" stopIfTrue="1">
       <formula>$I7="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="93" stopIfTrue="1">
       <formula>$I7="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="107" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="88" stopIfTrue="1">
       <formula>$I7="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="89" stopIfTrue="1">
       <formula>$I7="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="90" stopIfTrue="1">
       <formula>$I7="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:C36">
-    <cfRule type="expression" dxfId="104" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="85" stopIfTrue="1">
       <formula>$I36="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="86" stopIfTrue="1">
       <formula>$I36="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="87" stopIfTrue="1">
       <formula>$I36="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:I22">
-    <cfRule type="expression" dxfId="101" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="82" stopIfTrue="1">
       <formula>$I18="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="83" stopIfTrue="1">
       <formula>$I18="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="84" stopIfTrue="1">
       <formula>$I18="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:H22">
-    <cfRule type="expression" dxfId="98" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="79" stopIfTrue="1">
       <formula>$I18="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="80" stopIfTrue="1">
       <formula>$I18="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="81" stopIfTrue="1">
       <formula>$I18="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="95" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="76" stopIfTrue="1">
       <formula>$I3="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="77" stopIfTrue="1">
       <formula>$I3="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="78" stopIfTrue="1">
       <formula>$I3="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:K5">
-    <cfRule type="expression" dxfId="92" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="73" stopIfTrue="1">
       <formula>$I3="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="74" stopIfTrue="1">
       <formula>$I3="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="75" stopIfTrue="1">
       <formula>$I3="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23:K23">
-    <cfRule type="expression" dxfId="89" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="70" stopIfTrue="1">
       <formula>$I23="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="71" stopIfTrue="1">
       <formula>$I23="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="72" stopIfTrue="1">
       <formula>$I23="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24:K24">
-    <cfRule type="expression" dxfId="86" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="67" stopIfTrue="1">
       <formula>$I24="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="68" stopIfTrue="1">
       <formula>$I24="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="69" stopIfTrue="1">
       <formula>$I24="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25:K25">
-    <cfRule type="expression" dxfId="83" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="64" stopIfTrue="1">
       <formula>$I25="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="65" stopIfTrue="1">
       <formula>$I25="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="66" stopIfTrue="1">
       <formula>$I25="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26:K26">
-    <cfRule type="expression" dxfId="80" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="61" stopIfTrue="1">
       <formula>$I26="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="62" stopIfTrue="1">
       <formula>$I26="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="63" stopIfTrue="1">
       <formula>$I26="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:K27">
-    <cfRule type="expression" dxfId="77" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="58" stopIfTrue="1">
       <formula>$I27="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="59" stopIfTrue="1">
       <formula>$I27="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="60" stopIfTrue="1">
       <formula>$I27="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:K28">
-    <cfRule type="expression" dxfId="74" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="55" stopIfTrue="1">
       <formula>$I28="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="56" stopIfTrue="1">
       <formula>$I28="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="57" stopIfTrue="1">
       <formula>$I28="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29:K29">
-    <cfRule type="expression" dxfId="71" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="52" stopIfTrue="1">
       <formula>$I29="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="53" stopIfTrue="1">
       <formula>$I29="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="54" stopIfTrue="1">
       <formula>$I29="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30:K30">
-    <cfRule type="expression" dxfId="68" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="49" stopIfTrue="1">
       <formula>$I30="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="50" stopIfTrue="1">
       <formula>$I30="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="51" stopIfTrue="1">
       <formula>$I30="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35:K35">
-    <cfRule type="expression" dxfId="65" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="34" stopIfTrue="1">
       <formula>$I35="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="35" stopIfTrue="1">
       <formula>$I35="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="36" stopIfTrue="1">
       <formula>$I35="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32:K32">
-    <cfRule type="expression" dxfId="62" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="43" stopIfTrue="1">
       <formula>$I32="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="44" stopIfTrue="1">
       <formula>$I32="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="45" stopIfTrue="1">
       <formula>$I32="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:K33">
-    <cfRule type="expression" dxfId="59" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="40" stopIfTrue="1">
       <formula>$I33="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="41" stopIfTrue="1">
       <formula>$I33="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="42" stopIfTrue="1">
       <formula>$I33="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34:K34">
-    <cfRule type="expression" dxfId="56" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="37" stopIfTrue="1">
       <formula>$I34="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="38" stopIfTrue="1">
       <formula>$I34="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="39" stopIfTrue="1">
       <formula>$I34="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39:K39">
-    <cfRule type="expression" dxfId="53" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="22" stopIfTrue="1">
       <formula>$I39="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="23" stopIfTrue="1">
       <formula>$I39="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="24" stopIfTrue="1">
       <formula>$I39="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36:K36">
-    <cfRule type="expression" dxfId="50" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="31" stopIfTrue="1">
       <formula>$I36="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="32" stopIfTrue="1">
       <formula>$I36="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="33" stopIfTrue="1">
       <formula>$I36="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37:K37">
-    <cfRule type="expression" dxfId="47" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="28" stopIfTrue="1">
       <formula>$I37="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="29" stopIfTrue="1">
       <formula>$I37="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="30" stopIfTrue="1">
       <formula>$I37="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38:K38">
-    <cfRule type="expression" dxfId="44" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="25" stopIfTrue="1">
       <formula>$I38="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="26" stopIfTrue="1">
       <formula>$I38="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="27" stopIfTrue="1">
       <formula>$I38="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="41" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="19" stopIfTrue="1">
       <formula>$I9="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="20" stopIfTrue="1">
       <formula>$I9="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="21" stopIfTrue="1">
       <formula>$I9="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="38" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="106" stopIfTrue="1">
       <formula>$I5="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="107" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="107" stopIfTrue="1">
       <formula>$I5="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="108" stopIfTrue="1">
       <formula>$I5="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="35" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="10" stopIfTrue="1">
       <formula>$I7="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="11" stopIfTrue="1">
       <formula>$I7="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="12" stopIfTrue="1">
       <formula>$I7="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="32" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="7" stopIfTrue="1">
       <formula>$I4="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="8" stopIfTrue="1">
       <formula>$I4="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="9" stopIfTrue="1">
       <formula>$I4="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="29" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="4" stopIfTrue="1">
       <formula>$I7="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="5" stopIfTrue="1">
       <formula>$I7="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="6" stopIfTrue="1">
       <formula>$I7="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="26" priority="151" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="151" stopIfTrue="1">
       <formula>$I6="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="152" stopIfTrue="1">
       <formula>$I6="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="153" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="153" stopIfTrue="1">
       <formula>$I6="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="23" priority="154" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="154" stopIfTrue="1">
       <formula>$I8="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="155" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="155" stopIfTrue="1">
       <formula>$I8="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="156" stopIfTrue="1">
       <formula>$I8="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
       <formula>$I7="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>$I7="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$I7="Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3000,19 +2859,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.375" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -3020,7 +2879,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3028,7 +2887,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3036,7 +2895,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3044,7 +2903,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -3052,12 +2911,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>22</v>
       </c>

--- a/开发计划2016-01.xlsx
+++ b/开发计划2016-01.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="45">
   <si>
     <t>序号</t>
   </si>
@@ -112,10 +112,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>帖子 - 首页H5改原生开发</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>帖子 - 首页H5改原生UI设计</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -182,6 +178,12 @@
   <si>
     <t>iOS 用户版 1.3推送信息更新</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iOS 用户版 1.3版本更新</t>
+  </si>
+  <si>
+    <t>帖子 - 首页H5改原生开发</t>
   </si>
 </sst>
 </file>
@@ -235,13 +237,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF00B050"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="宋体"/>
@@ -267,6 +262,12 @@
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
       <charset val="134"/>
@@ -320,32 +321,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -357,11 +358,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -374,79 +376,7 @@
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="102">
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="93">
     <dxf>
       <fill>
         <patternFill>
@@ -1533,11 +1463,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1565,19 +1495,19 @@
         <v>10</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>3</v>
@@ -1666,7 +1596,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -1689,7 +1619,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2">
         <v>42389</v>
@@ -1700,10 +1630,10 @@
       <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="12">
         <v>42389</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="12">
         <v>42389</v>
       </c>
       <c r="I6" s="4" t="s">
@@ -1714,39 +1644,39 @@
       </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row r="7" spans="1:11" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="14">
+        <v>42389</v>
+      </c>
+      <c r="E7" s="14">
+        <v>42389</v>
+      </c>
+      <c r="F7" s="15">
+        <v>1</v>
+      </c>
+      <c r="G7" s="14">
+        <v>42389</v>
+      </c>
+      <c r="H7" s="14">
+        <v>42389</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="12">
-        <v>42389</v>
-      </c>
-      <c r="E7" s="12">
-        <v>42389</v>
-      </c>
-      <c r="F7" s="13">
-        <v>1</v>
-      </c>
-      <c r="G7" s="12">
-        <v>42389</v>
-      </c>
-      <c r="H7" s="12">
-        <v>42389</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>36</v>
+      <c r="K7" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -1757,7 +1687,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2">
         <v>42389</v>
@@ -1768,15 +1698,15 @@
       <c r="F8" s="3">
         <v>1</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="12">
         <v>42389</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K8" s="1"/>
     </row>
@@ -1785,10 +1715,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1798,17 +1728,15 @@
       <c r="I9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>28</v>
@@ -1829,7 +1757,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>29</v>
@@ -1850,47 +1778,49 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="D12" s="2">
+        <v>42390</v>
+      </c>
+      <c r="E12" s="2">
+        <v>42390</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="6"/>
       <c r="I12" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="A13" s="13">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="2">
-        <v>42390</v>
-      </c>
-      <c r="E13" s="2">
-        <v>42390</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="6"/>
       <c r="I13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.3">
@@ -1898,9 +1828,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="1">
-        <v>22</v>
-      </c>
+      <c r="C14" s="1"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="3"/>
@@ -1947,7 +1875,7 @@
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="A17" s="13">
         <v>16</v>
       </c>
       <c r="B17" s="1"/>
@@ -1984,8 +1912,8 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="3"/>
@@ -2001,8 +1929,8 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="3"/>
@@ -2049,7 +1977,7 @@
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+      <c r="A23" s="13">
         <v>22</v>
       </c>
       <c r="B23" s="1"/>
@@ -2117,7 +2045,7 @@
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+      <c r="A27" s="13">
         <v>26</v>
       </c>
       <c r="B27" s="1"/>
@@ -2219,7 +2147,7 @@
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+      <c r="A33" s="13">
         <v>32</v>
       </c>
       <c r="B33" s="1"/>
@@ -2239,8 +2167,8 @@
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="3"/>
@@ -2256,8 +2184,8 @@
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="3"/>
@@ -2287,7 +2215,7 @@
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+      <c r="A37" s="13">
         <v>36</v>
       </c>
       <c r="B37" s="1"/>
@@ -2389,7 +2317,7 @@
       <c r="K42" s="1"/>
     </row>
     <row r="43" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
+      <c r="A43" s="13">
         <v>42</v>
       </c>
       <c r="B43" s="1"/>
@@ -2439,342 +2367,292 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
-        <v>45</v>
-      </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="I23:I36 H3:I5 H36 H40:K46 H37:I39 H2:K2 A2:D2 B37:D46 D36 C3:D4 E2:G5 D9 A9:A46 J9:K22 J7:K7 A4:A6 D5:D6 D7:G7 E6:F6 D8:F8 I6:K6 H8:K8 B3:B6 A7:B8 B10:D35 E9:G46 H9:I17">
-    <cfRule type="expression" dxfId="101" priority="103" stopIfTrue="1">
+  <conditionalFormatting sqref="A2:K45">
+    <cfRule type="expression" dxfId="92" priority="100" stopIfTrue="1">
       <formula>$I2="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="101" stopIfTrue="1">
       <formula>$I2="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="102" stopIfTrue="1">
       <formula>$I2="Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23:H35">
-    <cfRule type="expression" dxfId="98" priority="100" stopIfTrue="1">
+  <conditionalFormatting sqref="J30:K30">
+    <cfRule type="expression" dxfId="89" priority="46" stopIfTrue="1">
+      <formula>$I30="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="47" stopIfTrue="1">
+      <formula>$I30="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="87" priority="48" stopIfTrue="1">
+      <formula>$I30="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="expression" dxfId="86" priority="91" stopIfTrue="1">
+      <formula>$I7="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="92" stopIfTrue="1">
+      <formula>$I7="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="93" stopIfTrue="1">
+      <formula>$I7="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="expression" dxfId="83" priority="88" stopIfTrue="1">
+      <formula>$I7="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="89" stopIfTrue="1">
+      <formula>$I7="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="90" stopIfTrue="1">
+      <formula>$I7="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:C35">
+    <cfRule type="expression" dxfId="80" priority="85" stopIfTrue="1">
+      <formula>$I35="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="79" priority="86" stopIfTrue="1">
+      <formula>$I35="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="87" stopIfTrue="1">
+      <formula>$I35="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17:I21">
+    <cfRule type="expression" dxfId="77" priority="82" stopIfTrue="1">
+      <formula>$I17="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="83" stopIfTrue="1">
+      <formula>$I17="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="84" stopIfTrue="1">
+      <formula>$I17="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:H21">
+    <cfRule type="expression" dxfId="74" priority="79" stopIfTrue="1">
+      <formula>$I17="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="80" stopIfTrue="1">
+      <formula>$I17="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="81" stopIfTrue="1">
+      <formula>$I17="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="expression" dxfId="71" priority="76" stopIfTrue="1">
+      <formula>$I3="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="77" stopIfTrue="1">
+      <formula>$I3="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="78" stopIfTrue="1">
+      <formula>$I3="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:K5">
+    <cfRule type="expression" dxfId="68" priority="73" stopIfTrue="1">
+      <formula>$I3="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="74" stopIfTrue="1">
+      <formula>$I3="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="75" stopIfTrue="1">
+      <formula>$I3="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22:K22">
+    <cfRule type="expression" dxfId="65" priority="70" stopIfTrue="1">
+      <formula>$I22="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="71" stopIfTrue="1">
+      <formula>$I22="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="72" stopIfTrue="1">
+      <formula>$I22="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23:K23">
+    <cfRule type="expression" dxfId="62" priority="67" stopIfTrue="1">
       <formula>$I23="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="68" stopIfTrue="1">
       <formula>$I23="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="69" stopIfTrue="1">
       <formula>$I23="Done"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J24:K24">
+    <cfRule type="expression" dxfId="59" priority="64" stopIfTrue="1">
+      <formula>$I24="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="65" stopIfTrue="1">
+      <formula>$I24="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="66" stopIfTrue="1">
+      <formula>$I24="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25:K25">
+    <cfRule type="expression" dxfId="56" priority="61" stopIfTrue="1">
+      <formula>$I25="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="62" stopIfTrue="1">
+      <formula>$I25="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="63" stopIfTrue="1">
+      <formula>$I25="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26:K26">
+    <cfRule type="expression" dxfId="53" priority="58" stopIfTrue="1">
+      <formula>$I26="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="59" stopIfTrue="1">
+      <formula>$I26="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="60" stopIfTrue="1">
+      <formula>$I26="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27:K27">
+    <cfRule type="expression" dxfId="50" priority="55" stopIfTrue="1">
+      <formula>$I27="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="56" stopIfTrue="1">
+      <formula>$I27="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="57" stopIfTrue="1">
+      <formula>$I27="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28:K28">
+    <cfRule type="expression" dxfId="47" priority="52" stopIfTrue="1">
+      <formula>$I28="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="53" stopIfTrue="1">
+      <formula>$I28="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="54" stopIfTrue="1">
+      <formula>$I28="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29:K29">
+    <cfRule type="expression" dxfId="44" priority="49" stopIfTrue="1">
+      <formula>$I29="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="50" stopIfTrue="1">
+      <formula>$I29="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="51" stopIfTrue="1">
+      <formula>$I29="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J34:K34">
+    <cfRule type="expression" dxfId="41" priority="34" stopIfTrue="1">
+      <formula>$I34="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="35" stopIfTrue="1">
+      <formula>$I34="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="36" stopIfTrue="1">
+      <formula>$I34="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J31:K31">
-    <cfRule type="expression" dxfId="95" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="43" stopIfTrue="1">
       <formula>$I31="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="44" stopIfTrue="1">
       <formula>$I31="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="45" stopIfTrue="1">
       <formula>$I31="Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="92" priority="91" stopIfTrue="1">
-      <formula>$I7="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="91" priority="92" stopIfTrue="1">
-      <formula>$I7="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="90" priority="93" stopIfTrue="1">
-      <formula>$I7="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="89" priority="88" stopIfTrue="1">
-      <formula>$I7="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="88" priority="89" stopIfTrue="1">
-      <formula>$I7="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="87" priority="90" stopIfTrue="1">
-      <formula>$I7="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36:C36">
-    <cfRule type="expression" dxfId="86" priority="85" stopIfTrue="1">
+  <conditionalFormatting sqref="J32:K32">
+    <cfRule type="expression" dxfId="35" priority="40" stopIfTrue="1">
+      <formula>$I32="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="41" stopIfTrue="1">
+      <formula>$I32="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="42" stopIfTrue="1">
+      <formula>$I32="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33:K33">
+    <cfRule type="expression" dxfId="32" priority="37" stopIfTrue="1">
+      <formula>$I33="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="38" stopIfTrue="1">
+      <formula>$I33="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="39" stopIfTrue="1">
+      <formula>$I33="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J38:K38">
+    <cfRule type="expression" dxfId="29" priority="22" stopIfTrue="1">
+      <formula>$I38="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="23" stopIfTrue="1">
+      <formula>$I38="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="24" stopIfTrue="1">
+      <formula>$I38="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J35:K35">
+    <cfRule type="expression" dxfId="26" priority="31" stopIfTrue="1">
+      <formula>$I35="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="32" stopIfTrue="1">
+      <formula>$I35="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="33" stopIfTrue="1">
+      <formula>$I35="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J36:K36">
+    <cfRule type="expression" dxfId="23" priority="28" stopIfTrue="1">
       <formula>$I36="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="29" stopIfTrue="1">
       <formula>$I36="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="30" stopIfTrue="1">
       <formula>$I36="Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I18:I22">
-    <cfRule type="expression" dxfId="83" priority="82" stopIfTrue="1">
-      <formula>$I18="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="82" priority="83" stopIfTrue="1">
-      <formula>$I18="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="81" priority="84" stopIfTrue="1">
-      <formula>$I18="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18:H22">
-    <cfRule type="expression" dxfId="80" priority="79" stopIfTrue="1">
-      <formula>$I18="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="79" priority="80" stopIfTrue="1">
-      <formula>$I18="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="78" priority="81" stopIfTrue="1">
-      <formula>$I18="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="77" priority="76" stopIfTrue="1">
-      <formula>$I3="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="76" priority="77" stopIfTrue="1">
-      <formula>$I3="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="75" priority="78" stopIfTrue="1">
-      <formula>$I3="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:K5">
-    <cfRule type="expression" dxfId="74" priority="73" stopIfTrue="1">
-      <formula>$I3="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="73" priority="74" stopIfTrue="1">
-      <formula>$I3="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="75" stopIfTrue="1">
-      <formula>$I3="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23:K23">
-    <cfRule type="expression" dxfId="71" priority="70" stopIfTrue="1">
-      <formula>$I23="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="71" stopIfTrue="1">
-      <formula>$I23="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="69" priority="72" stopIfTrue="1">
-      <formula>$I23="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J24:K24">
-    <cfRule type="expression" dxfId="68" priority="67" stopIfTrue="1">
-      <formula>$I24="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="67" priority="68" stopIfTrue="1">
-      <formula>$I24="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="69" stopIfTrue="1">
-      <formula>$I24="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25:K25">
-    <cfRule type="expression" dxfId="65" priority="64" stopIfTrue="1">
-      <formula>$I25="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="65" stopIfTrue="1">
-      <formula>$I25="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="63" priority="66" stopIfTrue="1">
-      <formula>$I25="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J26:K26">
-    <cfRule type="expression" dxfId="62" priority="61" stopIfTrue="1">
-      <formula>$I26="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="61" priority="62" stopIfTrue="1">
-      <formula>$I26="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="63" stopIfTrue="1">
-      <formula>$I26="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J27:K27">
-    <cfRule type="expression" dxfId="59" priority="58" stopIfTrue="1">
-      <formula>$I27="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="59" stopIfTrue="1">
-      <formula>$I27="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="60" stopIfTrue="1">
-      <formula>$I27="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28:K28">
-    <cfRule type="expression" dxfId="56" priority="55" stopIfTrue="1">
-      <formula>$I28="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="55" priority="56" stopIfTrue="1">
-      <formula>$I28="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="57" stopIfTrue="1">
-      <formula>$I28="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J29:K29">
-    <cfRule type="expression" dxfId="53" priority="52" stopIfTrue="1">
-      <formula>$I29="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="53" stopIfTrue="1">
-      <formula>$I29="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="54" stopIfTrue="1">
-      <formula>$I29="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30:K30">
-    <cfRule type="expression" dxfId="50" priority="49" stopIfTrue="1">
-      <formula>$I30="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="50" stopIfTrue="1">
-      <formula>$I30="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="51" stopIfTrue="1">
-      <formula>$I30="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J35:K35">
-    <cfRule type="expression" dxfId="47" priority="34" stopIfTrue="1">
-      <formula>$I35="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="35" stopIfTrue="1">
-      <formula>$I35="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="36" stopIfTrue="1">
-      <formula>$I35="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J32:K32">
-    <cfRule type="expression" dxfId="44" priority="43" stopIfTrue="1">
-      <formula>$I32="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="44" stopIfTrue="1">
-      <formula>$I32="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="45" stopIfTrue="1">
-      <formula>$I32="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J33:K33">
-    <cfRule type="expression" dxfId="41" priority="40" stopIfTrue="1">
-      <formula>$I33="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="41" stopIfTrue="1">
-      <formula>$I33="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="42" stopIfTrue="1">
-      <formula>$I33="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J34:K34">
-    <cfRule type="expression" dxfId="38" priority="37" stopIfTrue="1">
-      <formula>$I34="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="38" stopIfTrue="1">
-      <formula>$I34="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="39" stopIfTrue="1">
-      <formula>$I34="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J39:K39">
-    <cfRule type="expression" dxfId="35" priority="22" stopIfTrue="1">
-      <formula>$I39="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="23" stopIfTrue="1">
-      <formula>$I39="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="24" stopIfTrue="1">
-      <formula>$I39="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J36:K36">
-    <cfRule type="expression" dxfId="32" priority="31" stopIfTrue="1">
-      <formula>$I36="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="32" stopIfTrue="1">
-      <formula>$I36="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="33" stopIfTrue="1">
-      <formula>$I36="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J37:K37">
-    <cfRule type="expression" dxfId="29" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="25" stopIfTrue="1">
       <formula>$I37="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="26" stopIfTrue="1">
       <formula>$I37="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="27" stopIfTrue="1">
       <formula>$I37="Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J38:K38">
-    <cfRule type="expression" dxfId="26" priority="25" stopIfTrue="1">
-      <formula>$I38="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="26" stopIfTrue="1">
-      <formula>$I38="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="27" stopIfTrue="1">
-      <formula>$I38="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="23" priority="19" stopIfTrue="1">
-      <formula>$I9="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="20" stopIfTrue="1">
-      <formula>$I9="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="21" stopIfTrue="1">
-      <formula>$I9="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="20" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="106" stopIfTrue="1">
       <formula>$I5="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="107" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="107" stopIfTrue="1">
       <formula>$I5="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="108" stopIfTrue="1">
       <formula>$I5="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="17" priority="10" stopIfTrue="1">
-      <formula>$I7="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="11" stopIfTrue="1">
-      <formula>$I7="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="12" stopIfTrue="1">
-      <formula>$I7="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
@@ -2841,13 +2719,13 @@
           <x14:formula1>
             <xm:f>Sheet3!$B$1:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>J2:K46</xm:sqref>
+          <xm:sqref>J2:K45</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet3!$A$1:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I46</xm:sqref>
+          <xm:sqref>I2:I45</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/开发计划2016-01.xlsx
+++ b/开发计划2016-01.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="13170"/>
   </bookViews>
   <sheets>
     <sheet name="第3周" sheetId="4" r:id="rId1"/>
@@ -189,12 +189,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -376,7 +376,127 @@
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="93">
+  <dxfs count="108">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1462,29 +1582,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.44140625" customWidth="1"/>
+    <col min="1" max="1" width="4.375" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="10.375" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="10" customFormat="1" ht="10.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1519,7 +1639,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1542,7 +1662,7 @@
       </c>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1565,7 +1685,7 @@
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1588,7 +1708,7 @@
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1611,7 +1731,7 @@
       </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1644,7 +1764,7 @@
       </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="11" customFormat="1">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -1679,7 +1799,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1710,7 +1830,7 @@
       </c>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1731,7 +1851,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -1752,7 +1872,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1773,7 +1893,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1794,13 +1914,13 @@
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="4" t="s">
-        <v>6</v>
+      <c r="I12" s="16" t="s">
+        <v>7</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -1823,7 +1943,7 @@
       </c>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1840,7 +1960,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1857,7 +1977,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1874,7 +1994,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -1891,7 +2011,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1908,7 +2028,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1925,7 +2045,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1942,7 +2062,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1959,7 +2079,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1976,7 +2096,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11">
       <c r="A23" s="13">
         <v>22</v>
       </c>
@@ -1993,7 +2113,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2010,7 +2130,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2027,7 +2147,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2044,7 +2164,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11">
       <c r="A27" s="13">
         <v>26</v>
       </c>
@@ -2061,7 +2181,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2078,7 +2198,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2095,7 +2215,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2112,7 +2232,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2129,7 +2249,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2146,7 +2266,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11">
       <c r="A33" s="13">
         <v>32</v>
       </c>
@@ -2163,7 +2283,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2180,7 +2300,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2197,7 +2317,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2214,7 +2334,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11">
       <c r="A37" s="13">
         <v>36</v>
       </c>
@@ -2231,7 +2351,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2248,7 +2368,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2265,7 +2385,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2282,7 +2402,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2299,7 +2419,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2316,7 +2436,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11">
       <c r="A43" s="13">
         <v>42</v>
       </c>
@@ -2333,7 +2453,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2350,7 +2470,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2370,344 +2490,366 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:K45">
-    <cfRule type="expression" dxfId="92" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="106" stopIfTrue="1">
       <formula>$I2="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="107" stopIfTrue="1">
       <formula>$I2="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="108" stopIfTrue="1">
       <formula>$I2="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30:K30">
-    <cfRule type="expression" dxfId="89" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="52" stopIfTrue="1">
       <formula>$I30="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="53" stopIfTrue="1">
       <formula>$I30="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="54" stopIfTrue="1">
       <formula>$I30="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="86" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="97" stopIfTrue="1">
       <formula>$I7="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="98" stopIfTrue="1">
       <formula>$I7="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="99" stopIfTrue="1">
       <formula>$I7="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="83" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="94" stopIfTrue="1">
       <formula>$I7="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="95" stopIfTrue="1">
       <formula>$I7="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="96" stopIfTrue="1">
       <formula>$I7="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:C35">
-    <cfRule type="expression" dxfId="80" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="91" stopIfTrue="1">
       <formula>$I35="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="92" stopIfTrue="1">
       <formula>$I35="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="93" stopIfTrue="1">
       <formula>$I35="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:I21">
-    <cfRule type="expression" dxfId="77" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="88" stopIfTrue="1">
       <formula>$I17="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="89" stopIfTrue="1">
       <formula>$I17="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="90" stopIfTrue="1">
       <formula>$I17="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H21">
-    <cfRule type="expression" dxfId="74" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="85" stopIfTrue="1">
       <formula>$I17="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="86" stopIfTrue="1">
       <formula>$I17="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="87" stopIfTrue="1">
       <formula>$I17="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="71" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="82" stopIfTrue="1">
       <formula>$I3="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="83" stopIfTrue="1">
       <formula>$I3="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="84" stopIfTrue="1">
       <formula>$I3="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:K5">
-    <cfRule type="expression" dxfId="68" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="79" stopIfTrue="1">
       <formula>$I3="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="80" stopIfTrue="1">
       <formula>$I3="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="81" stopIfTrue="1">
       <formula>$I3="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:K22">
-    <cfRule type="expression" dxfId="65" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="76" stopIfTrue="1">
       <formula>$I22="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="77" stopIfTrue="1">
       <formula>$I22="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="78" stopIfTrue="1">
       <formula>$I22="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23:K23">
-    <cfRule type="expression" dxfId="62" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="73" stopIfTrue="1">
       <formula>$I23="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="74" stopIfTrue="1">
       <formula>$I23="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="75" stopIfTrue="1">
       <formula>$I23="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24:K24">
-    <cfRule type="expression" dxfId="59" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="70" stopIfTrue="1">
       <formula>$I24="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="71" stopIfTrue="1">
       <formula>$I24="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="72" stopIfTrue="1">
       <formula>$I24="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25:K25">
-    <cfRule type="expression" dxfId="56" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="67" stopIfTrue="1">
       <formula>$I25="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="68" stopIfTrue="1">
       <formula>$I25="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="69" stopIfTrue="1">
       <formula>$I25="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26:K26">
-    <cfRule type="expression" dxfId="53" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="64" stopIfTrue="1">
       <formula>$I26="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="65" stopIfTrue="1">
       <formula>$I26="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="66" stopIfTrue="1">
       <formula>$I26="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:K27">
-    <cfRule type="expression" dxfId="50" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="61" stopIfTrue="1">
       <formula>$I27="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="62" stopIfTrue="1">
       <formula>$I27="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="63" stopIfTrue="1">
       <formula>$I27="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:K28">
-    <cfRule type="expression" dxfId="47" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="58" stopIfTrue="1">
       <formula>$I28="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="59" stopIfTrue="1">
       <formula>$I28="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="60" stopIfTrue="1">
       <formula>$I28="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29:K29">
-    <cfRule type="expression" dxfId="44" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="55" stopIfTrue="1">
       <formula>$I29="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="56" stopIfTrue="1">
       <formula>$I29="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="57" stopIfTrue="1">
       <formula>$I29="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34:K34">
-    <cfRule type="expression" dxfId="41" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="40" stopIfTrue="1">
       <formula>$I34="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="41" stopIfTrue="1">
       <formula>$I34="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="42" stopIfTrue="1">
       <formula>$I34="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31:K31">
-    <cfRule type="expression" dxfId="38" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="49" stopIfTrue="1">
       <formula>$I31="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="50" stopIfTrue="1">
       <formula>$I31="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="51" stopIfTrue="1">
       <formula>$I31="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32:K32">
-    <cfRule type="expression" dxfId="35" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="46" stopIfTrue="1">
       <formula>$I32="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="47" stopIfTrue="1">
       <formula>$I32="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="48" stopIfTrue="1">
       <formula>$I32="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:K33">
-    <cfRule type="expression" dxfId="32" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="43" stopIfTrue="1">
       <formula>$I33="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="44" stopIfTrue="1">
       <formula>$I33="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="45" stopIfTrue="1">
       <formula>$I33="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38:K38">
-    <cfRule type="expression" dxfId="29" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="28" stopIfTrue="1">
       <formula>$I38="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="29" stopIfTrue="1">
       <formula>$I38="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="30" stopIfTrue="1">
       <formula>$I38="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35:K35">
-    <cfRule type="expression" dxfId="26" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="37" stopIfTrue="1">
       <formula>$I35="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="38" stopIfTrue="1">
       <formula>$I35="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="39" stopIfTrue="1">
       <formula>$I35="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36:K36">
-    <cfRule type="expression" dxfId="23" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="34" stopIfTrue="1">
       <formula>$I36="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="35" stopIfTrue="1">
       <formula>$I36="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="36" stopIfTrue="1">
       <formula>$I36="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37:K37">
-    <cfRule type="expression" dxfId="20" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="31" stopIfTrue="1">
       <formula>$I37="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="32" stopIfTrue="1">
       <formula>$I37="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="33" stopIfTrue="1">
       <formula>$I37="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="17" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="112" stopIfTrue="1">
       <formula>$I5="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="107" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="113" stopIfTrue="1">
       <formula>$I5="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="114" stopIfTrue="1">
       <formula>$I5="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="14" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="13" stopIfTrue="1">
       <formula>$I4="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="14" stopIfTrue="1">
       <formula>$I4="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="15" stopIfTrue="1">
       <formula>$I4="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
+    <cfRule type="expression" dxfId="26" priority="10" stopIfTrue="1">
+      <formula>$I7="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="11" stopIfTrue="1">
+      <formula>$I7="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="12" stopIfTrue="1">
+      <formula>$I7="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="expression" dxfId="23" priority="157" stopIfTrue="1">
+      <formula>$I6="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="158" stopIfTrue="1">
+      <formula>$I6="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="159" stopIfTrue="1">
+      <formula>$I6="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="expression" dxfId="20" priority="160" stopIfTrue="1">
+      <formula>$I8="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="161" stopIfTrue="1">
+      <formula>$I8="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="162" stopIfTrue="1">
+      <formula>$I8="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="expression" dxfId="17" priority="7" stopIfTrue="1">
+      <formula>$I7="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="8" stopIfTrue="1">
+      <formula>$I7="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="9" stopIfTrue="1">
+      <formula>$I7="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
     <cfRule type="expression" dxfId="11" priority="4" stopIfTrue="1">
-      <formula>$I7="Not start"</formula>
+      <formula>$I12="Not start"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="10" priority="5" stopIfTrue="1">
-      <formula>$I7="Pending"</formula>
+      <formula>$I12="Pending"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="9" priority="6" stopIfTrue="1">
-      <formula>$I7="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="8" priority="151" stopIfTrue="1">
-      <formula>$I6="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="152" stopIfTrue="1">
-      <formula>$I6="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="153" stopIfTrue="1">
-      <formula>$I6="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="5" priority="154" stopIfTrue="1">
-      <formula>$I8="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="155" stopIfTrue="1">
-      <formula>$I8="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="156" stopIfTrue="1">
-      <formula>$I8="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
-      <formula>$I7="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>$I7="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>$I7="Done"</formula>
+      <formula>$I12="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+      <formula>$I12="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+      <formula>$I12="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+      <formula>$I12="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2737,19 +2879,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2757,7 +2899,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2765,7 +2907,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2773,7 +2915,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2781,7 +2923,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2789,12 +2931,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="B6" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="B7" s="8" t="s">
         <v>22</v>
       </c>

--- a/开发计划2016-01.xlsx
+++ b/开发计划2016-01.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="13170"/>
+    <workbookView xWindow="700" yWindow="0" windowWidth="23260" windowHeight="13180"/>
   </bookViews>
   <sheets>
     <sheet name="第3周" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="55">
   <si>
     <t>序号</t>
   </si>
@@ -176,25 +176,64 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>iOS 用户版 1.3推送信息更新</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>iOS 用户版 1.3版本更新</t>
   </si>
   <si>
     <t>帖子 - 首页H5改原生开发</t>
+  </si>
+  <si>
+    <t>iOS 用户版 1.3版本更新</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>帖子内容转发功能开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>帖子内容页评论条的评论功能开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>帖子的收藏接口Api</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>帖子的收藏列表接口Api</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>帖子取消收藏接口Api</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>帖子收藏开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>帖子取消收藏开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收藏列表开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的地址开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王凯</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -366,17 +405,89 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="108">
+  <dxfs count="117">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="10"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1582,29 +1693,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.375" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="4.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="5" customWidth="1"/>
     <col min="8" max="8" width="10.5" customWidth="1"/>
-    <col min="9" max="9" width="10.375" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
     <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="10" customFormat="1" ht="10.5">
+    <row r="1" spans="1:11" s="10" customFormat="1" ht="12">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1898,26 +2009,32 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D12" s="2">
-        <v>42390</v>
+        <v>42389</v>
       </c>
       <c r="E12" s="2">
-        <v>42390</v>
+        <v>42389</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="16" t="s">
+      <c r="G12" s="2">
+        <v>42389</v>
+      </c>
+      <c r="H12" s="2">
+        <v>42389</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="1"/>
+      <c r="J12" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11">
@@ -1925,18 +2042,28 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="6"/>
+      <c r="D13" s="14">
+        <v>42389</v>
+      </c>
+      <c r="E13" s="2">
+        <v>42390</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="14">
+        <v>42389</v>
+      </c>
+      <c r="H13" s="2">
+        <v>42390</v>
+      </c>
       <c r="I13" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>14</v>
@@ -1947,25 +2074,43 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="2">
+        <v>42390</v>
+      </c>
+      <c r="E14" s="2">
+        <v>42390</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>42390</v>
+      </c>
       <c r="H14" s="6"/>
       <c r="I14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="3"/>
@@ -1974,15 +2119,21 @@
       <c r="I15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="3"/>
@@ -1991,15 +2142,21 @@
       <c r="I16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J16" s="1"/>
+      <c r="J16" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="3"/>
@@ -2008,15 +2165,21 @@
       <c r="I17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J17" s="1"/>
+      <c r="J17" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="3"/>
@@ -2025,15 +2188,23 @@
       <c r="I18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="J18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="3"/>
@@ -2042,15 +2213,23 @@
       <c r="I19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="J19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="3"/>
@@ -2059,15 +2238,23 @@
       <c r="I20" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="J20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="3"/>
@@ -2076,7 +2263,9 @@
       <c r="I21" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="1"/>
+      <c r="J21" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11">
@@ -2489,385 +2678,386 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K45">
-    <cfRule type="expression" dxfId="107" priority="106" stopIfTrue="1">
+  <conditionalFormatting sqref="A2:K11 A22:K45">
+    <cfRule type="expression" dxfId="116" priority="115" stopIfTrue="1">
       <formula>$I2="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="107" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="116" stopIfTrue="1">
       <formula>$I2="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="117" stopIfTrue="1">
       <formula>$I2="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30:K30">
-    <cfRule type="expression" dxfId="104" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="61" stopIfTrue="1">
       <formula>$I30="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="62" stopIfTrue="1">
       <formula>$I30="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="63" stopIfTrue="1">
       <formula>$I30="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="101" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="106" stopIfTrue="1">
       <formula>$I7="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="107" stopIfTrue="1">
       <formula>$I7="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="108" stopIfTrue="1">
       <formula>$I7="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="98" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="103" stopIfTrue="1">
       <formula>$I7="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="104" stopIfTrue="1">
       <formula>$I7="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="105" stopIfTrue="1">
       <formula>$I7="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:C35">
+    <cfRule type="expression" dxfId="104" priority="100" stopIfTrue="1">
+      <formula>$I35="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="103" priority="101" stopIfTrue="1">
+      <formula>$I35="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="102" stopIfTrue="1">
+      <formula>$I35="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
     <cfRule type="expression" dxfId="95" priority="91" stopIfTrue="1">
+      <formula>$I3="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="92" stopIfTrue="1">
+      <formula>$I3="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="93" priority="93" stopIfTrue="1">
+      <formula>$I3="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:K5">
+    <cfRule type="expression" dxfId="92" priority="88" stopIfTrue="1">
+      <formula>$I3="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="89" stopIfTrue="1">
+      <formula>$I3="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="90" stopIfTrue="1">
+      <formula>$I3="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22:K22">
+    <cfRule type="expression" dxfId="89" priority="85" stopIfTrue="1">
+      <formula>$I22="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="86" stopIfTrue="1">
+      <formula>$I22="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="87" priority="87" stopIfTrue="1">
+      <formula>$I22="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23:K23">
+    <cfRule type="expression" dxfId="86" priority="82" stopIfTrue="1">
+      <formula>$I23="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="83" stopIfTrue="1">
+      <formula>$I23="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="84" stopIfTrue="1">
+      <formula>$I23="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24:K24">
+    <cfRule type="expression" dxfId="83" priority="79" stopIfTrue="1">
+      <formula>$I24="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="80" stopIfTrue="1">
+      <formula>$I24="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="81" stopIfTrue="1">
+      <formula>$I24="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25:K25">
+    <cfRule type="expression" dxfId="80" priority="76" stopIfTrue="1">
+      <formula>$I25="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="79" priority="77" stopIfTrue="1">
+      <formula>$I25="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="78" stopIfTrue="1">
+      <formula>$I25="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26:K26">
+    <cfRule type="expression" dxfId="77" priority="73" stopIfTrue="1">
+      <formula>$I26="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="74" stopIfTrue="1">
+      <formula>$I26="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="75" stopIfTrue="1">
+      <formula>$I26="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27:K27">
+    <cfRule type="expression" dxfId="74" priority="70" stopIfTrue="1">
+      <formula>$I27="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="71" stopIfTrue="1">
+      <formula>$I27="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="72" stopIfTrue="1">
+      <formula>$I27="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28:K28">
+    <cfRule type="expression" dxfId="71" priority="67" stopIfTrue="1">
+      <formula>$I28="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="68" stopIfTrue="1">
+      <formula>$I28="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="69" stopIfTrue="1">
+      <formula>$I28="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29:K29">
+    <cfRule type="expression" dxfId="68" priority="64" stopIfTrue="1">
+      <formula>$I29="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="65" stopIfTrue="1">
+      <formula>$I29="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="66" stopIfTrue="1">
+      <formula>$I29="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J34:K34">
+    <cfRule type="expression" dxfId="65" priority="49" stopIfTrue="1">
+      <formula>$I34="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="50" stopIfTrue="1">
+      <formula>$I34="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="51" stopIfTrue="1">
+      <formula>$I34="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J31:K31">
+    <cfRule type="expression" dxfId="62" priority="58" stopIfTrue="1">
+      <formula>$I31="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="59" stopIfTrue="1">
+      <formula>$I31="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="60" stopIfTrue="1">
+      <formula>$I31="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32:K32">
+    <cfRule type="expression" dxfId="59" priority="55" stopIfTrue="1">
+      <formula>$I32="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="56" stopIfTrue="1">
+      <formula>$I32="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="57" stopIfTrue="1">
+      <formula>$I32="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33:K33">
+    <cfRule type="expression" dxfId="56" priority="52" stopIfTrue="1">
+      <formula>$I33="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="53" stopIfTrue="1">
+      <formula>$I33="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="54" stopIfTrue="1">
+      <formula>$I33="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J38:K38">
+    <cfRule type="expression" dxfId="53" priority="37" stopIfTrue="1">
+      <formula>$I38="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="38" stopIfTrue="1">
+      <formula>$I38="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="39" stopIfTrue="1">
+      <formula>$I38="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J35:K35">
+    <cfRule type="expression" dxfId="50" priority="46" stopIfTrue="1">
       <formula>$I35="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="47" stopIfTrue="1">
       <formula>$I35="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="48" stopIfTrue="1">
       <formula>$I35="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J36:K36">
+    <cfRule type="expression" dxfId="47" priority="43" stopIfTrue="1">
+      <formula>$I36="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="44" stopIfTrue="1">
+      <formula>$I36="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="45" stopIfTrue="1">
+      <formula>$I36="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J37:K37">
+    <cfRule type="expression" dxfId="44" priority="40" stopIfTrue="1">
+      <formula>$I37="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="41" stopIfTrue="1">
+      <formula>$I37="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="42" stopIfTrue="1">
+      <formula>$I37="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="expression" dxfId="41" priority="121" stopIfTrue="1">
+      <formula>$I5="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="122" stopIfTrue="1">
+      <formula>$I5="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="123" stopIfTrue="1">
+      <formula>$I5="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="expression" dxfId="38" priority="22" stopIfTrue="1">
+      <formula>$I4="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="23" stopIfTrue="1">
+      <formula>$I4="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="24" stopIfTrue="1">
+      <formula>$I4="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="expression" dxfId="35" priority="19" stopIfTrue="1">
+      <formula>$I7="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="20" stopIfTrue="1">
+      <formula>$I7="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="21" stopIfTrue="1">
+      <formula>$I7="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="expression" dxfId="32" priority="166" stopIfTrue="1">
+      <formula>$I6="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="167" stopIfTrue="1">
+      <formula>$I6="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="168" stopIfTrue="1">
+      <formula>$I6="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="expression" dxfId="29" priority="169" stopIfTrue="1">
+      <formula>$I8="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="170" stopIfTrue="1">
+      <formula>$I8="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="171" stopIfTrue="1">
+      <formula>$I8="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="expression" dxfId="26" priority="16" stopIfTrue="1">
+      <formula>$I7="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="17" stopIfTrue="1">
+      <formula>$I7="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="18" stopIfTrue="1">
+      <formula>$I7="Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:K21">
+    <cfRule type="expression" dxfId="17" priority="7" stopIfTrue="1">
+      <formula>$I12="Not start"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="8" stopIfTrue="1">
+      <formula>$I12="Pending"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="9" stopIfTrue="1">
+      <formula>$I12="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:I21">
-    <cfRule type="expression" dxfId="92" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="4" stopIfTrue="1">
       <formula>$I17="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="5" stopIfTrue="1">
       <formula>$I17="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="6" stopIfTrue="1">
       <formula>$I17="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H21">
-    <cfRule type="expression" dxfId="89" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
       <formula>$I17="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
       <formula>$I17="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>$I17="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="86" priority="82" stopIfTrue="1">
-      <formula>$I3="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="85" priority="83" stopIfTrue="1">
-      <formula>$I3="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="84" stopIfTrue="1">
-      <formula>$I3="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:K5">
-    <cfRule type="expression" dxfId="83" priority="79" stopIfTrue="1">
-      <formula>$I3="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="82" priority="80" stopIfTrue="1">
-      <formula>$I3="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="81" priority="81" stopIfTrue="1">
-      <formula>$I3="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22:K22">
-    <cfRule type="expression" dxfId="80" priority="76" stopIfTrue="1">
-      <formula>$I22="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="79" priority="77" stopIfTrue="1">
-      <formula>$I22="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="78" priority="78" stopIfTrue="1">
-      <formula>$I22="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23:K23">
-    <cfRule type="expression" dxfId="77" priority="73" stopIfTrue="1">
-      <formula>$I23="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="76" priority="74" stopIfTrue="1">
-      <formula>$I23="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="75" priority="75" stopIfTrue="1">
-      <formula>$I23="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J24:K24">
-    <cfRule type="expression" dxfId="74" priority="70" stopIfTrue="1">
-      <formula>$I24="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="73" priority="71" stopIfTrue="1">
-      <formula>$I24="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="72" stopIfTrue="1">
-      <formula>$I24="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25:K25">
-    <cfRule type="expression" dxfId="71" priority="67" stopIfTrue="1">
-      <formula>$I25="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="68" stopIfTrue="1">
-      <formula>$I25="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="69" priority="69" stopIfTrue="1">
-      <formula>$I25="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J26:K26">
-    <cfRule type="expression" dxfId="68" priority="64" stopIfTrue="1">
-      <formula>$I26="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="67" priority="65" stopIfTrue="1">
-      <formula>$I26="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="66" stopIfTrue="1">
-      <formula>$I26="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J27:K27">
-    <cfRule type="expression" dxfId="65" priority="61" stopIfTrue="1">
-      <formula>$I27="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="62" stopIfTrue="1">
-      <formula>$I27="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="63" priority="63" stopIfTrue="1">
-      <formula>$I27="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28:K28">
-    <cfRule type="expression" dxfId="62" priority="58" stopIfTrue="1">
-      <formula>$I28="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="61" priority="59" stopIfTrue="1">
-      <formula>$I28="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="60" stopIfTrue="1">
-      <formula>$I28="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J29:K29">
-    <cfRule type="expression" dxfId="59" priority="55" stopIfTrue="1">
-      <formula>$I29="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="56" stopIfTrue="1">
-      <formula>$I29="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="57" stopIfTrue="1">
-      <formula>$I29="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J34:K34">
-    <cfRule type="expression" dxfId="56" priority="40" stopIfTrue="1">
-      <formula>$I34="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="55" priority="41" stopIfTrue="1">
-      <formula>$I34="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="42" stopIfTrue="1">
-      <formula>$I34="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J31:K31">
-    <cfRule type="expression" dxfId="53" priority="49" stopIfTrue="1">
-      <formula>$I31="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="50" stopIfTrue="1">
-      <formula>$I31="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="51" stopIfTrue="1">
-      <formula>$I31="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J32:K32">
-    <cfRule type="expression" dxfId="50" priority="46" stopIfTrue="1">
-      <formula>$I32="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="47" stopIfTrue="1">
-      <formula>$I32="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="48" stopIfTrue="1">
-      <formula>$I32="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J33:K33">
-    <cfRule type="expression" dxfId="47" priority="43" stopIfTrue="1">
-      <formula>$I33="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="44" stopIfTrue="1">
-      <formula>$I33="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="45" stopIfTrue="1">
-      <formula>$I33="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J38:K38">
-    <cfRule type="expression" dxfId="44" priority="28" stopIfTrue="1">
-      <formula>$I38="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="29" stopIfTrue="1">
-      <formula>$I38="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="30" stopIfTrue="1">
-      <formula>$I38="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J35:K35">
-    <cfRule type="expression" dxfId="41" priority="37" stopIfTrue="1">
-      <formula>$I35="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="38" stopIfTrue="1">
-      <formula>$I35="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="39" stopIfTrue="1">
-      <formula>$I35="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J36:K36">
-    <cfRule type="expression" dxfId="38" priority="34" stopIfTrue="1">
-      <formula>$I36="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="35" stopIfTrue="1">
-      <formula>$I36="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="36" stopIfTrue="1">
-      <formula>$I36="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J37:K37">
-    <cfRule type="expression" dxfId="35" priority="31" stopIfTrue="1">
-      <formula>$I37="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="32" stopIfTrue="1">
-      <formula>$I37="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="33" stopIfTrue="1">
-      <formula>$I37="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="32" priority="112" stopIfTrue="1">
-      <formula>$I5="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="113" stopIfTrue="1">
-      <formula>$I5="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="114" stopIfTrue="1">
-      <formula>$I5="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="29" priority="13" stopIfTrue="1">
-      <formula>$I4="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="14" stopIfTrue="1">
-      <formula>$I4="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="15" stopIfTrue="1">
-      <formula>$I4="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="26" priority="10" stopIfTrue="1">
-      <formula>$I7="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="11" stopIfTrue="1">
-      <formula>$I7="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="12" stopIfTrue="1">
-      <formula>$I7="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="23" priority="157" stopIfTrue="1">
-      <formula>$I6="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="158" stopIfTrue="1">
-      <formula>$I6="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="159" stopIfTrue="1">
-      <formula>$I6="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="20" priority="160" stopIfTrue="1">
-      <formula>$I8="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="161" stopIfTrue="1">
-      <formula>$I8="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="162" stopIfTrue="1">
-      <formula>$I8="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="17" priority="7" stopIfTrue="1">
-      <formula>$I7="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="8" stopIfTrue="1">
-      <formula>$I7="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="9" stopIfTrue="1">
-      <formula>$I7="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="11" priority="4" stopIfTrue="1">
-      <formula>$I12="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="5" stopIfTrue="1">
-      <formula>$I12="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="6" stopIfTrue="1">
-      <formula>$I12="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
-      <formula>$I12="Not start"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
-      <formula>$I12="Pending"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
-      <formula>$I12="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet3!$B$1:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>J2:K45</xm:sqref>
+          <xm:sqref>J2:K11 J22:K45</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet3!$A$1:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I45</xm:sqref>
+          <xm:sqref>I2:I11 I22:I45</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Sheet3!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>I12:I21</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Sheet3!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>J12:K21</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2879,16 +3069,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.375" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2944,7 +3134,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/开发计划2016-01.xlsx
+++ b/开发计划2016-01.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="0" windowWidth="23260" windowHeight="13180"/>
+    <workbookView xWindow="2080" yWindow="3280" windowWidth="23260" windowHeight="13180"/>
   </bookViews>
   <sheets>
     <sheet name="第3周" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -415,175 +416,7 @@
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="117">
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="17"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="10"/>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="96">
     <dxf>
       <fill>
         <patternFill>
@@ -2679,388 +2512,360 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:K11 A22:K45">
-    <cfRule type="expression" dxfId="116" priority="115" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="115" stopIfTrue="1">
       <formula>$I2="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="116" stopIfTrue="1">
       <formula>$I2="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="117" stopIfTrue="1">
       <formula>$I2="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30:K30">
-    <cfRule type="expression" dxfId="113" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="61" stopIfTrue="1">
       <formula>$I30="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="62" stopIfTrue="1">
       <formula>$I30="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="63" stopIfTrue="1">
       <formula>$I30="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="110" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="106" stopIfTrue="1">
       <formula>$I7="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="107" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="107" stopIfTrue="1">
       <formula>$I7="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="108" stopIfTrue="1">
       <formula>$I7="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="107" priority="103" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="103" stopIfTrue="1">
       <formula>$I7="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="104" stopIfTrue="1">
       <formula>$I7="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="105" stopIfTrue="1">
       <formula>$I7="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:C35">
-    <cfRule type="expression" dxfId="104" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="100" stopIfTrue="1">
       <formula>$I35="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="101" stopIfTrue="1">
       <formula>$I35="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="102" stopIfTrue="1">
       <formula>$I35="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="95" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="91" stopIfTrue="1">
       <formula>$I3="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="92" stopIfTrue="1">
       <formula>$I3="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="93" stopIfTrue="1">
       <formula>$I3="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:K5">
-    <cfRule type="expression" dxfId="92" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="88" stopIfTrue="1">
       <formula>$I3="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="89" stopIfTrue="1">
       <formula>$I3="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="90" stopIfTrue="1">
       <formula>$I3="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:K22">
-    <cfRule type="expression" dxfId="89" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="85" stopIfTrue="1">
       <formula>$I22="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="86" stopIfTrue="1">
       <formula>$I22="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="87" stopIfTrue="1">
       <formula>$I22="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23:K23">
-    <cfRule type="expression" dxfId="86" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="82" stopIfTrue="1">
       <formula>$I23="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="83" stopIfTrue="1">
       <formula>$I23="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="84" stopIfTrue="1">
       <formula>$I23="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24:K24">
-    <cfRule type="expression" dxfId="83" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="79" stopIfTrue="1">
       <formula>$I24="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="80" stopIfTrue="1">
       <formula>$I24="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="81" stopIfTrue="1">
       <formula>$I24="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25:K25">
-    <cfRule type="expression" dxfId="80" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="76" stopIfTrue="1">
       <formula>$I25="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="77" stopIfTrue="1">
       <formula>$I25="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="78" stopIfTrue="1">
       <formula>$I25="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26:K26">
-    <cfRule type="expression" dxfId="77" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="73" stopIfTrue="1">
       <formula>$I26="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="74" stopIfTrue="1">
       <formula>$I26="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="75" stopIfTrue="1">
       <formula>$I26="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:K27">
-    <cfRule type="expression" dxfId="74" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="70" stopIfTrue="1">
       <formula>$I27="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="71" stopIfTrue="1">
       <formula>$I27="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="72" stopIfTrue="1">
       <formula>$I27="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:K28">
-    <cfRule type="expression" dxfId="71" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="67" stopIfTrue="1">
       <formula>$I28="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="68" stopIfTrue="1">
       <formula>$I28="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="69" stopIfTrue="1">
       <formula>$I28="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29:K29">
-    <cfRule type="expression" dxfId="68" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="64" stopIfTrue="1">
       <formula>$I29="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="65" stopIfTrue="1">
       <formula>$I29="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="66" stopIfTrue="1">
       <formula>$I29="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34:K34">
-    <cfRule type="expression" dxfId="65" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="49" stopIfTrue="1">
       <formula>$I34="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="50" stopIfTrue="1">
       <formula>$I34="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="51" stopIfTrue="1">
       <formula>$I34="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31:K31">
-    <cfRule type="expression" dxfId="62" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="58" stopIfTrue="1">
       <formula>$I31="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="59" stopIfTrue="1">
       <formula>$I31="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="60" stopIfTrue="1">
       <formula>$I31="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32:K32">
-    <cfRule type="expression" dxfId="59" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="55" stopIfTrue="1">
       <formula>$I32="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="56" stopIfTrue="1">
       <formula>$I32="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="57" stopIfTrue="1">
       <formula>$I32="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33:K33">
-    <cfRule type="expression" dxfId="56" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="52" stopIfTrue="1">
       <formula>$I33="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="53" stopIfTrue="1">
       <formula>$I33="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="54" stopIfTrue="1">
       <formula>$I33="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38:K38">
-    <cfRule type="expression" dxfId="53" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="37" stopIfTrue="1">
       <formula>$I38="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="38" stopIfTrue="1">
       <formula>$I38="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="39" stopIfTrue="1">
       <formula>$I38="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35:K35">
-    <cfRule type="expression" dxfId="50" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="46" stopIfTrue="1">
       <formula>$I35="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="47" stopIfTrue="1">
       <formula>$I35="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="48" stopIfTrue="1">
       <formula>$I35="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36:K36">
-    <cfRule type="expression" dxfId="47" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="43" stopIfTrue="1">
       <formula>$I36="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="44" stopIfTrue="1">
       <formula>$I36="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="45" stopIfTrue="1">
       <formula>$I36="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37:K37">
-    <cfRule type="expression" dxfId="44" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="40" stopIfTrue="1">
       <formula>$I37="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="41" stopIfTrue="1">
       <formula>$I37="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="42" stopIfTrue="1">
       <formula>$I37="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="41" priority="121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="121" stopIfTrue="1">
       <formula>$I5="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="122" stopIfTrue="1">
       <formula>$I5="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="123" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="123" stopIfTrue="1">
       <formula>$I5="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="38" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="22" stopIfTrue="1">
       <formula>$I4="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="23" stopIfTrue="1">
       <formula>$I4="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="24" stopIfTrue="1">
       <formula>$I4="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="expression" dxfId="35" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="19" stopIfTrue="1">
       <formula>$I7="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
       <formula>$I7="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
       <formula>$I7="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="32" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="166" stopIfTrue="1">
       <formula>$I6="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="167" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="167" stopIfTrue="1">
       <formula>$I6="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="168" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="168" stopIfTrue="1">
       <formula>$I6="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="29" priority="169" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="169" stopIfTrue="1">
       <formula>$I8="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="170" stopIfTrue="1">
       <formula>$I8="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="171" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="171" stopIfTrue="1">
       <formula>$I8="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="26" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="16" stopIfTrue="1">
       <formula>$I7="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="17" stopIfTrue="1">
       <formula>$I7="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="18" stopIfTrue="1">
       <formula>$I7="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:K21">
-    <cfRule type="expression" dxfId="17" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
       <formula>$I12="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
       <formula>$I12="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
       <formula>$I12="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:I21">
-    <cfRule type="expression" dxfId="11" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
       <formula>$I17="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>$I17="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
       <formula>$I17="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H21">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
       <formula>$I17="Not start"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>$I17="Pending"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$I17="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet3!$B$1:$B$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>J2:K11 J22:K45</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet3!$A$1:$A$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>I2:I11 I22:I45</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]Sheet3!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>I12:I21</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]Sheet3!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>J12:K21</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
